--- a/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
+++ b/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2072C35E-61A1-4A14-9A74-E5BA4204544B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1598EDF-90D5-44CA-910A-68AD781CC183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="4590" windowWidth="24090" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="4695" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH58_赤山町駅_UIList" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="258">
   <si>
     <t>Type</t>
   </si>
@@ -593,27 +593,36 @@
     <t>方向てこ</t>
   </si>
   <si>
+    <t>解放98</t>
+  </si>
+  <si>
+    <t>西赤山駅</t>
+  </si>
+  <si>
+    <t>解放99</t>
+  </si>
+  <si>
+    <t>-1,1</t>
+  </si>
+  <si>
+    <t>Image/Lever/LeverBase_LR.png</t>
+  </si>
+  <si>
+    <t>Image/Lever/Lever_White_L.png,Image/Lever/Lever_White_R.png</t>
+  </si>
+  <si>
+    <t>1Lは方向てこ　白LR</t>
+  </si>
+  <si>
+    <t>TextBlock</t>
+  </si>
+  <si>
+    <t>1L_Label</t>
+  </si>
+  <si>
     <t>駅扱切換</t>
   </si>
   <si>
-    <t>-1,1</t>
-  </si>
-  <si>
-    <t>Image/Lever/LeverBase_LR.png</t>
-  </si>
-  <si>
-    <t>Image/Lever/Lever_White_L.png,Image/Lever/Lever_White_R.png</t>
-  </si>
-  <si>
-    <t>1Lは方向てこ　白LR</t>
-  </si>
-  <si>
-    <t>TextBlock</t>
-  </si>
-  <si>
-    <t>1L_Label</t>
-  </si>
-  <si>
     <t>Transparent</t>
   </si>
   <si>
@@ -911,9 +920,6 @@
     <t>KeyImage</t>
   </si>
   <si>
-    <t>解放98</t>
-  </si>
-  <si>
     <t>方向てこ解放</t>
   </si>
   <si>
@@ -942,9 +948,6 @@
   </si>
   <si>
     <t>駅扱切換_PG</t>
-  </si>
-  <si>
-    <t>解放99</t>
   </si>
   <si>
     <t>解放99_PY</t>
@@ -1887,8 +1890,12 @@
       <c r="H6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="K6" s="7">
         <v>289</v>
       </c>
@@ -1908,19 +1915,19 @@
         <v>41</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X6" s="8">
         <v>-1</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
@@ -1933,10 +1940,10 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="8" t="s">
@@ -1946,7 +1953,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1972,10 +1979,10 @@
         <v>10</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>41</v>
@@ -1999,7 +2006,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2007,7 +2014,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2027,22 +2034,22 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X8" s="8">
         <v>0</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -2058,7 +2065,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2087,17 +2094,17 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X9" s="8">
         <v>0</v>
       </c>
       <c r="Y9" s="9"/>
       <c r="Z9" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
@@ -2110,20 +2117,20 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2149,13 +2156,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
@@ -2176,7 +2183,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2184,7 +2191,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2204,19 +2211,19 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="X11" s="8">
         <v>0</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
@@ -2233,7 +2240,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2262,14 +2269,14 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X12" s="8">
         <v>0</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
@@ -2283,20 +2290,20 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2322,13 +2329,13 @@
         <v>10</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -2349,7 +2356,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2357,7 +2364,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -2377,19 +2384,19 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z14" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="X14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z14" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
@@ -2406,7 +2413,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2435,14 +2442,14 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X15" s="8">
         <v>0</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
@@ -2456,20 +2463,20 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -2495,13 +2502,13 @@
         <v>10</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
@@ -2522,7 +2529,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2530,7 +2537,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -2550,19 +2557,19 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W17" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="X17" s="8">
         <v>0</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
@@ -2579,7 +2586,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2608,14 +2615,14 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X18" s="8">
         <v>0</v>
       </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
@@ -2629,20 +2636,20 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -2668,13 +2675,13 @@
         <v>10</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
@@ -2695,7 +2702,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2703,7 +2710,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -2723,19 +2730,19 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X20" s="8">
         <v>0</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
@@ -2752,7 +2759,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2781,14 +2788,14 @@
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X21" s="8">
         <v>0</v>
       </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
@@ -2802,20 +2809,20 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -2841,13 +2848,13 @@
         <v>10</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
@@ -2868,7 +2875,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2876,7 +2883,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -2896,19 +2903,19 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W23" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X23" s="8">
         <v>0</v>
       </c>
       <c r="Y23" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
@@ -2925,7 +2932,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2954,14 +2961,14 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X24" s="8">
         <v>0</v>
       </c>
       <c r="Y24" s="9"/>
       <c r="Z24" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
@@ -2975,20 +2982,20 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3014,13 +3021,13 @@
         <v>10</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
@@ -3041,7 +3048,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3049,7 +3056,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -3069,19 +3076,19 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="W26" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X26" s="8">
         <v>0</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
@@ -3098,7 +3105,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3127,14 +3134,14 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X27" s="8">
         <v>0</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
@@ -3148,20 +3155,20 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -3187,13 +3194,13 @@
         <v>10</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -3214,7 +3221,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3222,7 +3229,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -3242,19 +3249,19 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="X29" s="8">
         <v>0</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
@@ -3271,7 +3278,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3300,14 +3307,14 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X30" s="8">
         <v>0</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
@@ -3321,20 +3328,20 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -3360,13 +3367,13 @@
         <v>10</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -3387,15 +3394,17 @@
         <v>40</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H32" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -3415,22 +3424,22 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W32" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X32" s="8">
         <v>-1</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA32" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
@@ -3443,20 +3452,20 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -3482,13 +3491,13 @@
         <v>10</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
@@ -3509,7 +3518,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3517,7 +3526,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -3537,22 +3546,22 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W34" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X34" s="8">
         <v>0</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AA34" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
@@ -3568,7 +3577,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3597,14 +3606,14 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X35" s="8">
         <v>0</v>
       </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
@@ -3618,20 +3627,20 @@
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -3657,13 +3666,13 @@
         <v>10</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
@@ -3684,7 +3693,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3692,7 +3701,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -3712,19 +3721,19 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="X37" s="8">
         <v>0</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
@@ -3741,7 +3750,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3770,14 +3779,14 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X38" s="8">
         <v>0</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
@@ -3791,20 +3800,20 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -3830,13 +3839,13 @@
         <v>10</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
@@ -3857,7 +3866,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3865,7 +3874,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -3885,19 +3894,19 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z40" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="W40" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="X40" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z40" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
@@ -3914,7 +3923,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3943,14 +3952,14 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X41" s="8">
         <v>0</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
@@ -3964,20 +3973,20 @@
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -4003,13 +4012,13 @@
         <v>10</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
@@ -4027,10 +4036,10 @@
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -4038,7 +4047,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -4058,19 +4067,19 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W43" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X43" s="8">
         <v>0</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
@@ -4084,20 +4093,20 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -4117,19 +4126,19 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S44" s="4">
         <v>10</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
@@ -4147,10 +4156,10 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -4158,7 +4167,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -4178,19 +4187,19 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="W45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X45" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="W45" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="X45" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="Z45" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
@@ -4204,20 +4213,20 @@
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -4237,19 +4246,19 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="S46" s="4">
         <v>10</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
@@ -4267,10 +4276,10 @@
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -4278,7 +4287,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -4298,19 +4307,19 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="W47" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X47" s="8">
         <v>0</v>
       </c>
       <c r="Y47" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z47" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
@@ -4324,20 +4333,20 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -4357,19 +4366,19 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="S48" s="4">
         <v>10</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
@@ -4387,10 +4396,10 @@
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -4398,7 +4407,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -4418,19 +4427,19 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="W49" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X49" s="8">
         <v>0</v>
       </c>
       <c r="Y49" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
@@ -4444,20 +4453,20 @@
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -4477,19 +4486,19 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S50" s="4">
         <v>10</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
@@ -4507,10 +4516,10 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -4518,7 +4527,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -4538,19 +4547,19 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W51" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X51" s="8">
         <v>0</v>
       </c>
       <c r="Y51" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
@@ -4564,20 +4573,20 @@
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -4597,19 +4606,19 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="S52" s="4">
         <v>10</v>
       </c>
       <c r="T52" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
@@ -4627,10 +4636,10 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -4638,7 +4647,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -4658,19 +4667,19 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W53" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X53" s="8">
         <v>0</v>
       </c>
       <c r="Y53" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z53" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
@@ -4684,20 +4693,20 @@
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -4717,19 +4726,19 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S54" s="4">
         <v>10</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
@@ -4747,10 +4756,10 @@
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -4758,7 +4767,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -4778,19 +4787,19 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="W55" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X55" s="8">
         <v>0</v>
       </c>
       <c r="Y55" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z55" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
@@ -4804,20 +4813,20 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -4837,19 +4846,19 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S56" s="4">
         <v>10</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
@@ -4867,10 +4876,10 @@
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -4878,7 +4887,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -4898,19 +4907,19 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="W57" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X57" s="8">
         <v>0</v>
       </c>
       <c r="Y57" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Z57" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
@@ -4924,10 +4933,10 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -4935,7 +4944,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -4955,19 +4964,19 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="W58" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X58" s="8">
         <v>0</v>
       </c>
       <c r="Y58" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Z58" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
@@ -4984,7 +4993,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -4992,7 +5001,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -5012,22 +5021,22 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="W59" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="X59" s="8">
         <v>0</v>
       </c>
       <c r="Y59" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z59" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AA59" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -5043,7 +5052,7 @@
         <v>31</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -5072,14 +5081,14 @@
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X60" s="8">
         <v>0</v>
       </c>
       <c r="Y60" s="9"/>
       <c r="Z60" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
@@ -5096,7 +5105,7 @@
         <v>31</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -5125,14 +5134,14 @@
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X61" s="8">
         <v>0</v>
       </c>
       <c r="Y61" s="9"/>
       <c r="Z61" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
@@ -5146,20 +5155,20 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -5185,13 +5194,13 @@
         <v>10</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V62" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
@@ -5212,7 +5221,7 @@
         <v>40</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -5220,7 +5229,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -5240,19 +5249,19 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="W63" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="X63" s="8">
         <v>0</v>
       </c>
       <c r="Y63" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z63" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
@@ -5269,7 +5278,7 @@
         <v>31</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -5298,14 +5307,14 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X64" s="8">
         <v>0</v>
       </c>
       <c r="Y64" s="9"/>
       <c r="Z64" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
@@ -5322,7 +5331,7 @@
         <v>31</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -5351,14 +5360,14 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X65" s="8">
         <v>0</v>
       </c>
       <c r="Y65" s="9"/>
       <c r="Z65" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
@@ -5372,20 +5381,20 @@
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -5411,13 +5420,13 @@
         <v>10</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V66" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
@@ -5438,7 +5447,7 @@
         <v>40</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -5446,7 +5455,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -5466,19 +5475,19 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W67" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="X67" s="8">
         <v>0</v>
       </c>
       <c r="Y67" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z67" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
@@ -5495,7 +5504,7 @@
         <v>31</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -5524,14 +5533,14 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X68" s="8">
         <v>0</v>
       </c>
       <c r="Y68" s="9"/>
       <c r="Z68" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
@@ -5548,7 +5557,7 @@
         <v>31</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -5577,14 +5586,14 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X69" s="8">
         <v>0</v>
       </c>
       <c r="Y69" s="9"/>
       <c r="Z69" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
@@ -5598,20 +5607,20 @@
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -5637,13 +5646,13 @@
         <v>10</v>
       </c>
       <c r="T70" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U70" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V70" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
@@ -5664,7 +5673,7 @@
         <v>40</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -5672,7 +5681,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -5692,19 +5701,19 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="W71" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="X71" s="8">
         <v>0</v>
       </c>
       <c r="Y71" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z71" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
@@ -5721,7 +5730,7 @@
         <v>31</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -5750,14 +5759,14 @@
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X72" s="8">
         <v>0</v>
       </c>
       <c r="Y72" s="9"/>
       <c r="Z72" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
@@ -5774,7 +5783,7 @@
         <v>31</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -5803,14 +5812,14 @@
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
       <c r="W73" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X73" s="8">
         <v>0</v>
       </c>
       <c r="Y73" s="9"/>
       <c r="Z73" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
@@ -5824,20 +5833,20 @@
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -5863,13 +5872,13 @@
         <v>10</v>
       </c>
       <c r="T74" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
@@ -5890,7 +5899,7 @@
         <v>40</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -5898,7 +5907,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -5918,19 +5927,19 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="W75" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="X75" s="8">
         <v>0</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z75" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
@@ -5947,7 +5956,7 @@
         <v>31</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -5976,14 +5985,14 @@
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X76" s="8">
         <v>0</v>
       </c>
       <c r="Y76" s="9"/>
       <c r="Z76" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
@@ -6000,7 +6009,7 @@
         <v>31</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -6029,14 +6038,14 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X77" s="8">
         <v>0</v>
       </c>
       <c r="Y77" s="9"/>
       <c r="Z77" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
@@ -6050,20 +6059,20 @@
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -6089,13 +6098,13 @@
         <v>10</v>
       </c>
       <c r="T78" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V78" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
@@ -6113,17 +6122,17 @@
     </row>
     <row r="79" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
@@ -6144,22 +6153,22 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="7" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="W79" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X79" s="8">
         <v>0</v>
       </c>
       <c r="Y79" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z79" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
@@ -6175,7 +6184,7 @@
         <v>31</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -6202,14 +6211,14 @@
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
       <c r="W80" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X80" s="8">
         <v>0</v>
       </c>
       <c r="Y80" s="9"/>
       <c r="Z80" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
@@ -6223,17 +6232,17 @@
     </row>
     <row r="81" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -6254,22 +6263,22 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="W81" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="X81" s="8">
         <v>1</v>
       </c>
       <c r="Y81" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z81" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA81" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
@@ -6285,7 +6294,7 @@
         <v>31</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -6312,14 +6321,14 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X82" s="8">
         <v>0</v>
       </c>
       <c r="Y82" s="9"/>
       <c r="Z82" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
@@ -6336,7 +6345,7 @@
         <v>31</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6363,14 +6372,14 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X83" s="8">
         <v>0</v>
       </c>
       <c r="Y83" s="9"/>
       <c r="Z83" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
@@ -6384,17 +6393,17 @@
     </row>
     <row r="84" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -6415,22 +6424,22 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="7" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="W84" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X84" s="8">
         <v>0</v>
       </c>
       <c r="Y84" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z84" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AA84" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
@@ -6446,7 +6455,7 @@
         <v>31</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -6473,14 +6482,14 @@
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X85" s="8">
         <v>0</v>
       </c>
       <c r="Y85" s="9"/>
       <c r="Z85" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
@@ -6497,7 +6506,7 @@
         <v>31</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6524,17 +6533,17 @@
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
       <c r="W86" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X86" s="8">
         <v>0</v>
       </c>
       <c r="Y86" s="9"/>
       <c r="Z86" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA86" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
@@ -6550,7 +6559,7 @@
         <v>31</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6577,14 +6586,14 @@
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X87" s="8">
         <v>0</v>
       </c>
       <c r="Y87" s="9"/>
       <c r="Z87" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA87" s="11"/>
       <c r="AB87" s="5"/>
@@ -6601,7 +6610,7 @@
         <v>31</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -6628,14 +6637,14 @@
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
       <c r="W88" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X88" s="8">
         <v>0</v>
       </c>
       <c r="Y88" s="9"/>
       <c r="Z88" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA88" s="11"/>
       <c r="AB88" s="5"/>
@@ -6652,7 +6661,7 @@
         <v>31</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -6679,14 +6688,14 @@
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
       <c r="W89" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X89" s="8">
         <v>0</v>
       </c>
       <c r="Y89" s="9"/>
       <c r="Z89" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA89" s="11"/>
       <c r="AB89" s="5"/>
@@ -6703,7 +6712,7 @@
         <v>31</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -6730,17 +6739,17 @@
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
       <c r="W90" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X90" s="8">
         <v>0</v>
       </c>
       <c r="Y90" s="9"/>
       <c r="Z90" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA90" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
@@ -6756,7 +6765,7 @@
         <v>31</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6783,14 +6792,14 @@
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
       <c r="W91" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X91" s="8">
         <v>0</v>
       </c>
       <c r="Y91" s="9"/>
       <c r="Z91" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA91" s="11"/>
       <c r="AB91" s="5"/>
@@ -6807,7 +6816,7 @@
         <v>31</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6834,14 +6843,14 @@
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X92" s="8">
         <v>0</v>
       </c>
       <c r="Y92" s="9"/>
       <c r="Z92" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA92" s="11"/>
       <c r="AB92" s="5"/>
@@ -6858,7 +6867,7 @@
         <v>31</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -6885,17 +6894,17 @@
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
       <c r="W93" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X93" s="8">
         <v>0</v>
       </c>
       <c r="Y93" s="9"/>
       <c r="Z93" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA93" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
@@ -6911,7 +6920,7 @@
         <v>31</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -6938,14 +6947,14 @@
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X94" s="8">
         <v>0</v>
       </c>
       <c r="Y94" s="9"/>
       <c r="Z94" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA94" s="11"/>
       <c r="AB94" s="5"/>
@@ -6962,7 +6971,7 @@
         <v>31</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6989,14 +6998,14 @@
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="W95" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X95" s="8">
         <v>0</v>
       </c>
       <c r="Y95" s="9"/>
       <c r="Z95" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA95" s="11"/>
       <c r="AB95" s="5"/>
@@ -7013,7 +7022,7 @@
         <v>31</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -7040,14 +7049,14 @@
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
       <c r="W96" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X96" s="8">
         <v>0</v>
       </c>
       <c r="Y96" s="9"/>
       <c r="Z96" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA96" s="11"/>
       <c r="AB96" s="5"/>
@@ -7064,7 +7073,7 @@
         <v>31</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -7091,14 +7100,14 @@
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
       <c r="W97" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X97" s="8">
         <v>0</v>
       </c>
       <c r="Y97" s="9"/>
       <c r="Z97" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA97" s="11"/>
       <c r="AB97" s="5"/>
@@ -7115,7 +7124,7 @@
         <v>31</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -7142,17 +7151,17 @@
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
       <c r="W98" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X98" s="8">
         <v>0</v>
       </c>
       <c r="Y98" s="9"/>
       <c r="Z98" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA98" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
@@ -7168,7 +7177,7 @@
         <v>31</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -7195,17 +7204,17 @@
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
       <c r="W99" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X99" s="8">
         <v>0</v>
       </c>
       <c r="Y99" s="9"/>
       <c r="Z99" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA99" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
@@ -7221,7 +7230,7 @@
         <v>31</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -7248,17 +7257,17 @@
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
       <c r="W100" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X100" s="8">
         <v>0</v>
       </c>
       <c r="Y100" s="9"/>
       <c r="Z100" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA100" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
@@ -7274,7 +7283,7 @@
         <v>31</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -7301,17 +7310,17 @@
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
       <c r="W101" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X101" s="8">
         <v>0</v>
       </c>
       <c r="Y101" s="9"/>
       <c r="Z101" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA101" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
@@ -7327,7 +7336,7 @@
         <v>31</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -7354,14 +7363,14 @@
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
       <c r="W102" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X102" s="8">
         <v>0</v>
       </c>
       <c r="Y102" s="9"/>
       <c r="Z102" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA102" s="11"/>
       <c r="AB102" s="5"/>
@@ -7378,7 +7387,7 @@
         <v>31</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -7405,14 +7414,14 @@
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
       <c r="W103" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X103" s="8">
         <v>0</v>
       </c>
       <c r="Y103" s="9"/>
       <c r="Z103" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA103" s="11"/>
       <c r="AB103" s="5"/>
@@ -7429,7 +7438,7 @@
         <v>31</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -7456,14 +7465,14 @@
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
       <c r="W104" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X104" s="8">
         <v>0</v>
       </c>
       <c r="Y104" s="9"/>
       <c r="Z104" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA104" s="11"/>
       <c r="AB104" s="5"/>
@@ -7480,7 +7489,7 @@
         <v>31</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -7507,14 +7516,14 @@
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
       <c r="W105" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X105" s="8">
         <v>0</v>
       </c>
       <c r="Y105" s="9"/>
       <c r="Z105" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA105" s="11"/>
       <c r="AB105" s="5"/>
@@ -7531,7 +7540,7 @@
         <v>31</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -7558,14 +7567,14 @@
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
       <c r="W106" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X106" s="8">
         <v>0</v>
       </c>
       <c r="Y106" s="9"/>
       <c r="Z106" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA106" s="11"/>
       <c r="AB106" s="5"/>
@@ -7582,7 +7591,7 @@
         <v>31</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -7609,17 +7618,17 @@
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
       <c r="W107" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X107" s="8">
         <v>0</v>
       </c>
       <c r="Y107" s="9"/>
       <c r="Z107" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA107" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB107" s="5"/>
       <c r="AC107" s="5"/>
@@ -7635,7 +7644,7 @@
         <v>31</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -7662,14 +7671,14 @@
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
       <c r="W108" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X108" s="8">
         <v>0</v>
       </c>
       <c r="Y108" s="9"/>
       <c r="Z108" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA108" s="11"/>
       <c r="AB108" s="5"/>
@@ -7686,7 +7695,7 @@
         <v>31</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -7713,14 +7722,14 @@
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
       <c r="W109" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X109" s="8">
         <v>0</v>
       </c>
       <c r="Y109" s="9"/>
       <c r="Z109" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA109" s="11"/>
       <c r="AB109" s="5"/>
@@ -7737,7 +7746,7 @@
         <v>31</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -7764,14 +7773,14 @@
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
       <c r="W110" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X110" s="8">
         <v>0</v>
       </c>
       <c r="Y110" s="9"/>
       <c r="Z110" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA110" s="11"/>
       <c r="AB110" s="5"/>
@@ -7788,7 +7797,7 @@
         <v>31</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -7815,14 +7824,14 @@
       <c r="U111" s="4"/>
       <c r="V111" s="4"/>
       <c r="W111" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X111" s="8">
         <v>0</v>
       </c>
       <c r="Y111" s="9"/>
       <c r="Z111" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA111" s="11"/>
       <c r="AB111" s="5"/>
@@ -7839,7 +7848,7 @@
         <v>31</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -7866,14 +7875,14 @@
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
       <c r="W112" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X112" s="8">
         <v>0</v>
       </c>
       <c r="Y112" s="9"/>
       <c r="Z112" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA112" s="11"/>
       <c r="AB112" s="5"/>
@@ -7890,7 +7899,7 @@
         <v>31</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -7917,17 +7926,17 @@
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
       <c r="W113" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X113" s="8">
         <v>0</v>
       </c>
       <c r="Y113" s="9"/>
       <c r="Z113" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA113" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB113" s="5"/>
       <c r="AC113" s="5"/>
@@ -7943,7 +7952,7 @@
         <v>31</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -7970,14 +7979,14 @@
       <c r="U114" s="4"/>
       <c r="V114" s="4"/>
       <c r="W114" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X114" s="8">
         <v>0</v>
       </c>
       <c r="Y114" s="9"/>
       <c r="Z114" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA114" s="11"/>
       <c r="AB114" s="5"/>
@@ -7994,7 +8003,7 @@
         <v>31</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -8021,17 +8030,17 @@
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
       <c r="W115" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X115" s="8">
         <v>0</v>
       </c>
       <c r="Y115" s="9"/>
       <c r="Z115" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA115" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
@@ -8047,7 +8056,7 @@
         <v>31</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -8074,14 +8083,14 @@
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
       <c r="W116" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X116" s="8">
         <v>0</v>
       </c>
       <c r="Y116" s="9"/>
       <c r="Z116" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA116" s="11"/>
       <c r="AB116" s="5"/>
@@ -8098,7 +8107,7 @@
         <v>31</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -8125,14 +8134,14 @@
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
       <c r="W117" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X117" s="8">
         <v>0</v>
       </c>
       <c r="Y117" s="9"/>
       <c r="Z117" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA117" s="11"/>
       <c r="AB117" s="5"/>
@@ -8149,7 +8158,7 @@
         <v>31</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -8176,14 +8185,14 @@
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
       <c r="W118" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X118" s="8">
         <v>0</v>
       </c>
       <c r="Y118" s="9"/>
       <c r="Z118" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA118" s="11"/>
       <c r="AB118" s="5"/>
@@ -8200,7 +8209,7 @@
         <v>31</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -8227,14 +8236,14 @@
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
       <c r="W119" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X119" s="8">
         <v>0</v>
       </c>
       <c r="Y119" s="9"/>
       <c r="Z119" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA119" s="11"/>
       <c r="AB119" s="5"/>
@@ -8251,7 +8260,7 @@
         <v>31</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -8278,14 +8287,14 @@
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
       <c r="W120" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X120" s="8">
         <v>0</v>
       </c>
       <c r="Y120" s="9"/>
       <c r="Z120" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA120" s="11"/>
       <c r="AB120" s="5"/>
@@ -8302,7 +8311,7 @@
         <v>31</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -8329,14 +8338,14 @@
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
       <c r="W121" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X121" s="8">
         <v>0</v>
       </c>
       <c r="Y121" s="9"/>
       <c r="Z121" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA121" s="11"/>
       <c r="AB121" s="5"/>
@@ -8353,7 +8362,7 @@
         <v>31</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -8380,14 +8389,14 @@
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
       <c r="W122" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X122" s="8">
         <v>0</v>
       </c>
       <c r="Y122" s="9"/>
       <c r="Z122" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA122" s="11"/>
       <c r="AB122" s="5"/>
@@ -8404,7 +8413,7 @@
         <v>31</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -8431,14 +8440,14 @@
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
       <c r="W123" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X123" s="8">
         <v>0</v>
       </c>
       <c r="Y123" s="9"/>
       <c r="Z123" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA123" s="11"/>
       <c r="AB123" s="5"/>
@@ -8455,7 +8464,7 @@
         <v>31</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -8482,14 +8491,14 @@
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
       <c r="W124" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X124" s="8">
         <v>0</v>
       </c>
       <c r="Y124" s="9"/>
       <c r="Z124" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA124" s="11"/>
       <c r="AB124" s="5"/>
@@ -8506,7 +8515,7 @@
         <v>31</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -8533,14 +8542,14 @@
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
       <c r="W125" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X125" s="8">
         <v>0</v>
       </c>
       <c r="Y125" s="9"/>
       <c r="Z125" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA125" s="11"/>
       <c r="AB125" s="5"/>
@@ -8557,7 +8566,7 @@
         <v>31</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -8584,17 +8593,17 @@
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
       <c r="W126" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X126" s="8">
         <v>0</v>
       </c>
       <c r="Y126" s="9"/>
       <c r="Z126" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA126" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB126" s="5"/>
       <c r="AC126" s="5"/>
@@ -8610,7 +8619,7 @@
         <v>31</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -8637,14 +8646,14 @@
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
       <c r="W127" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X127" s="8">
         <v>0</v>
       </c>
       <c r="Y127" s="9"/>
       <c r="Z127" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA127" s="11"/>
       <c r="AB127" s="5"/>
@@ -8661,7 +8670,7 @@
         <v>31</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -8688,14 +8697,14 @@
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
       <c r="W128" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X128" s="8">
         <v>0</v>
       </c>
       <c r="Y128" s="9"/>
       <c r="Z128" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA128" s="11"/>
       <c r="AB128" s="5"/>
@@ -8712,7 +8721,7 @@
         <v>31</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -8739,14 +8748,14 @@
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
       <c r="W129" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X129" s="8">
         <v>0</v>
       </c>
       <c r="Y129" s="9"/>
       <c r="Z129" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA129" s="11"/>
       <c r="AB129" s="5"/>
@@ -8763,7 +8772,7 @@
         <v>31</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -8790,17 +8799,17 @@
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
       <c r="W130" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X130" s="8">
         <v>0</v>
       </c>
       <c r="Y130" s="9"/>
       <c r="Z130" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA130" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB130" s="5"/>
       <c r="AC130" s="5"/>
@@ -8816,7 +8825,7 @@
         <v>31</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -8843,14 +8852,14 @@
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
       <c r="W131" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X131" s="8">
         <v>0</v>
       </c>
       <c r="Y131" s="9"/>
       <c r="Z131" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA131" s="11"/>
       <c r="AB131" s="5"/>
@@ -8867,7 +8876,7 @@
         <v>31</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -8894,14 +8903,14 @@
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
       <c r="W132" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X132" s="8">
         <v>0</v>
       </c>
       <c r="Y132" s="9"/>
       <c r="Z132" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA132" s="11"/>
       <c r="AB132" s="5"/>
@@ -8918,7 +8927,7 @@
         <v>31</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -8945,14 +8954,14 @@
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
       <c r="W133" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X133" s="8">
         <v>0</v>
       </c>
       <c r="Y133" s="9"/>
       <c r="Z133" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA133" s="11"/>
       <c r="AB133" s="5"/>
@@ -8969,7 +8978,7 @@
         <v>31</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -8996,14 +9005,14 @@
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
       <c r="W134" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X134" s="8">
         <v>0</v>
       </c>
       <c r="Y134" s="9"/>
       <c r="Z134" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA134" s="11"/>
       <c r="AB134" s="5"/>
@@ -9020,7 +9029,7 @@
         <v>31</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -9047,17 +9056,17 @@
       <c r="U135" s="6"/>
       <c r="V135" s="6"/>
       <c r="W135" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X135" s="8">
         <v>0</v>
       </c>
       <c r="Y135" s="9"/>
       <c r="Z135" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA135" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB135" s="6"/>
       <c r="AC135" s="6"/>
@@ -9073,7 +9082,7 @@
         <v>31</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -9100,14 +9109,14 @@
       <c r="U136" s="6"/>
       <c r="V136" s="6"/>
       <c r="W136" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X136" s="8">
         <v>0</v>
       </c>
       <c r="Y136" s="9"/>
       <c r="Z136" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA136" s="11"/>
       <c r="AB136" s="6"/>
@@ -9124,7 +9133,7 @@
         <v>31</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -9151,14 +9160,14 @@
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
       <c r="W137" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X137" s="8">
         <v>0</v>
       </c>
       <c r="Y137" s="9"/>
       <c r="Z137" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA137" s="11"/>
       <c r="AB137" s="5"/>
@@ -9175,7 +9184,7 @@
         <v>31</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -9202,14 +9211,14 @@
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
       <c r="W138" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X138" s="8">
         <v>0</v>
       </c>
       <c r="Y138" s="9"/>
       <c r="Z138" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA138" s="11"/>
       <c r="AB138" s="5"/>
@@ -9226,7 +9235,7 @@
         <v>31</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -9253,17 +9262,17 @@
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
       <c r="W139" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X139" s="8">
         <v>0</v>
       </c>
       <c r="Y139" s="9"/>
       <c r="Z139" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA139" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB139" s="5"/>
       <c r="AC139" s="5"/>
@@ -9279,7 +9288,7 @@
         <v>31</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -9306,14 +9315,14 @@
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
       <c r="W140" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X140" s="8">
         <v>0</v>
       </c>
       <c r="Y140" s="9"/>
       <c r="Z140" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA140" s="11"/>
       <c r="AB140" s="5"/>
@@ -9330,7 +9339,7 @@
         <v>31</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -9357,14 +9366,14 @@
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
       <c r="W141" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X141" s="8">
         <v>0</v>
       </c>
       <c r="Y141" s="9"/>
       <c r="Z141" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA141" s="11"/>
       <c r="AB141" s="5"/>
@@ -9381,7 +9390,7 @@
         <v>31</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -9408,14 +9417,14 @@
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
       <c r="W142" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X142" s="8">
         <v>0</v>
       </c>
       <c r="Y142" s="9"/>
       <c r="Z142" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA142" s="11"/>
       <c r="AB142" s="5"/>
@@ -9432,7 +9441,7 @@
         <v>31</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -9459,14 +9468,14 @@
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
       <c r="W143" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X143" s="8">
         <v>0</v>
       </c>
       <c r="Y143" s="9"/>
       <c r="Z143" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA143" s="11"/>
       <c r="AB143" s="5"/>
@@ -9483,7 +9492,7 @@
         <v>31</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -9510,14 +9519,14 @@
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
       <c r="W144" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X144" s="8">
         <v>0</v>
       </c>
       <c r="Y144" s="9"/>
       <c r="Z144" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA144" s="11"/>
       <c r="AB144" s="5"/>
@@ -9534,7 +9543,7 @@
         <v>31</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -9561,14 +9570,14 @@
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
       <c r="W145" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X145" s="8">
         <v>0</v>
       </c>
       <c r="Y145" s="9"/>
       <c r="Z145" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA145" s="11"/>
       <c r="AB145" s="5"/>
@@ -9585,7 +9594,7 @@
         <v>31</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -9612,14 +9621,14 @@
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
       <c r="W146" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X146" s="8">
         <v>0</v>
       </c>
       <c r="Y146" s="9"/>
       <c r="Z146" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA146" s="11"/>
       <c r="AB146" s="5"/>
@@ -9636,7 +9645,7 @@
         <v>31</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -9663,14 +9672,14 @@
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
       <c r="W147" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X147" s="8">
         <v>0</v>
       </c>
       <c r="Y147" s="9"/>
       <c r="Z147" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA147" s="11"/>
       <c r="AB147" s="5"/>
@@ -9687,7 +9696,7 @@
         <v>31</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -9714,14 +9723,14 @@
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X148" s="8">
         <v>0</v>
       </c>
       <c r="Y148" s="9"/>
       <c r="Z148" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA148" s="11"/>
       <c r="AB148" s="5"/>
@@ -9738,7 +9747,7 @@
         <v>31</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -9765,17 +9774,17 @@
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
       <c r="W149" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X149" s="8">
         <v>0</v>
       </c>
       <c r="Y149" s="9"/>
       <c r="Z149" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA149" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB149" s="5"/>
       <c r="AC149" s="5"/>
@@ -9791,7 +9800,7 @@
         <v>31</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -9818,17 +9827,17 @@
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
       <c r="W150" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X150" s="8">
         <v>0</v>
       </c>
       <c r="Y150" s="9"/>
       <c r="Z150" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA150" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
@@ -9844,7 +9853,7 @@
         <v>31</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -9871,17 +9880,17 @@
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
       <c r="W151" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X151" s="8">
         <v>0</v>
       </c>
       <c r="Y151" s="9"/>
       <c r="Z151" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA151" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB151" s="5"/>
       <c r="AC151" s="5"/>
@@ -9897,7 +9906,7 @@
         <v>31</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -9924,17 +9933,17 @@
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
       <c r="W152" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X152" s="8">
         <v>0</v>
       </c>
       <c r="Y152" s="9"/>
       <c r="Z152" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA152" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB152" s="5"/>
       <c r="AC152" s="5"/>
@@ -9950,7 +9959,7 @@
         <v>31</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -9977,14 +9986,14 @@
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
       <c r="W153" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X153" s="8">
         <v>0</v>
       </c>
       <c r="Y153" s="9"/>
       <c r="Z153" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
@@ -10001,7 +10010,7 @@
         <v>31</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -10028,14 +10037,14 @@
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
       <c r="W154" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X154" s="8">
         <v>0</v>
       </c>
       <c r="Y154" s="9"/>
       <c r="Z154" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
@@ -10052,7 +10061,7 @@
         <v>31</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -10079,14 +10088,14 @@
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
       <c r="W155" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X155" s="8">
         <v>0</v>
       </c>
       <c r="Y155" s="9"/>
       <c r="Z155" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
@@ -10103,7 +10112,7 @@
         <v>31</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -10130,14 +10139,14 @@
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
       <c r="W156" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X156" s="8">
         <v>0</v>
       </c>
       <c r="Y156" s="9"/>
       <c r="Z156" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
@@ -10151,10 +10160,10 @@
     </row>
     <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -10180,13 +10189,13 @@
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
       <c r="V157" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="W157" s="4"/>
       <c r="X157" s="4"/>
       <c r="Y157" s="4"/>
       <c r="Z157" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
@@ -10200,10 +10209,10 @@
     </row>
     <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -10229,13 +10238,13 @@
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
       <c r="V158" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
       <c r="Y158" s="4"/>
       <c r="Z158" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
@@ -10249,10 +10258,10 @@
     </row>
     <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -10278,13 +10287,13 @@
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
       <c r="V159" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W159" s="4"/>
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
       <c r="Z159" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
@@ -10298,10 +10307,10 @@
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -10327,13 +10336,13 @@
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
       <c r="V160" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W160" s="4"/>
       <c r="X160" s="4"/>
       <c r="Y160" s="4"/>
       <c r="Z160" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
@@ -10347,10 +10356,10 @@
     </row>
     <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -10376,13 +10385,13 @@
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
       <c r="V161" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="W161" s="4"/>
       <c r="X161" s="4"/>
       <c r="Y161" s="4"/>
       <c r="Z161" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
@@ -10396,10 +10405,10 @@
     </row>
     <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -10425,13 +10434,13 @@
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
       <c r="V162" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W162" s="4"/>
       <c r="X162" s="4"/>
       <c r="Y162" s="4"/>
       <c r="Z162" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
@@ -10445,10 +10454,10 @@
     </row>
     <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -10474,13 +10483,13 @@
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
       <c r="V163" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W163" s="4"/>
       <c r="X163" s="4"/>
       <c r="Y163" s="4"/>
       <c r="Z163" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
@@ -10494,10 +10503,10 @@
     </row>
     <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -10523,13 +10532,13 @@
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
       <c r="V164" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W164" s="4"/>
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
       <c r="Z164" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
@@ -10543,10 +10552,10 @@
     </row>
     <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -10572,13 +10581,13 @@
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
       <c r="V165" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W165" s="4"/>
       <c r="X165" s="4"/>
       <c r="Y165" s="4"/>
       <c r="Z165" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
@@ -10592,10 +10601,10 @@
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -10621,13 +10630,13 @@
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
       <c r="V166" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="W166" s="4"/>
       <c r="X166" s="4"/>
       <c r="Y166" s="4"/>
       <c r="Z166" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
@@ -10819,17 +10828,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -10854,17 +10863,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
+++ b/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1598EDF-90D5-44CA-910A-68AD781CC183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EA9659-9EF7-42B9-A829-F6FB19186793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="4695" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3585" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH58_赤山町駅_UIList" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="260">
   <si>
     <t>Type</t>
   </si>
@@ -1181,6 +1181,9 @@
     <t>AS1T_10R_2</t>
   </si>
   <si>
+    <t>AS2T_1</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
@@ -1230,6 +1233,9 @@
   </si>
   <si>
     <t>列番赤山町下り第2接近</t>
+  </si>
+  <si>
+    <t>列番三郷2番線</t>
   </si>
   <si>
     <t>Button</t>
@@ -9970,10 +9976,10 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="7">
-        <v>152</v>
+        <v>1618</v>
       </c>
       <c r="L153" s="7">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
@@ -9986,14 +9992,14 @@
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
       <c r="W153" s="8" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="X153" s="8">
         <v>0</v>
       </c>
       <c r="Y153" s="9"/>
       <c r="Z153" s="10" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
@@ -10010,7 +10016,7 @@
         <v>31</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -10021,7 +10027,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="7">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="L154" s="7">
         <v>45</v>
@@ -10044,7 +10050,7 @@
       </c>
       <c r="Y154" s="9"/>
       <c r="Z154" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
@@ -10072,10 +10078,10 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="7">
-        <v>936</v>
+        <v>200</v>
       </c>
       <c r="L155" s="7">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
@@ -10095,7 +10101,7 @@
       </c>
       <c r="Y155" s="9"/>
       <c r="Z155" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
@@ -10123,7 +10129,7 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="7">
-        <v>974</v>
+        <v>936</v>
       </c>
       <c r="L156" s="7">
         <v>567</v>
@@ -10146,7 +10152,7 @@
       </c>
       <c r="Y156" s="9"/>
       <c r="Z156" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
@@ -10160,10 +10166,10 @@
     </row>
     <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -10174,10 +10180,10 @@
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="7">
-        <v>63</v>
+        <v>974</v>
       </c>
       <c r="L157" s="7">
-        <v>188</v>
+        <v>567</v>
       </c>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
@@ -10188,14 +10194,16 @@
       <c r="S157" s="4"/>
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
-      <c r="V157" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="W157" s="4"/>
-      <c r="X157" s="4"/>
-      <c r="Y157" s="4"/>
+      <c r="V157" s="4"/>
+      <c r="W157" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X157" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y157" s="9"/>
       <c r="Z157" s="10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
@@ -10209,10 +10217,10 @@
     </row>
     <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -10223,7 +10231,7 @@
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="7">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="L158" s="7">
         <v>188</v>
@@ -10238,13 +10246,13 @@
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
       <c r="V158" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
       <c r="Y158" s="4"/>
       <c r="Z158" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
@@ -10258,7 +10266,7 @@
     </row>
     <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>248</v>
@@ -10272,7 +10280,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="7">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="L159" s="7">
         <v>188</v>
@@ -10293,7 +10301,7 @@
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
       <c r="Z159" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
@@ -10307,7 +10315,7 @@
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>249</v>
@@ -10321,10 +10329,10 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="7">
-        <v>789</v>
+        <v>363</v>
       </c>
       <c r="L160" s="7">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
@@ -10342,7 +10350,7 @@
       <c r="X160" s="4"/>
       <c r="Y160" s="4"/>
       <c r="Z160" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
@@ -10356,7 +10364,7 @@
     </row>
     <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>250</v>
@@ -10370,10 +10378,10 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
       <c r="K161" s="7">
-        <v>847</v>
+        <v>789</v>
       </c>
       <c r="L161" s="7">
-        <v>335</v>
+        <v>255</v>
       </c>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
@@ -10391,7 +10399,7 @@
       <c r="X161" s="4"/>
       <c r="Y161" s="4"/>
       <c r="Z161" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
@@ -10405,7 +10413,7 @@
     </row>
     <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>251</v>
@@ -10419,10 +10427,10 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="7">
-        <v>905</v>
+        <v>847</v>
       </c>
       <c r="L162" s="7">
-        <v>415</v>
+        <v>335</v>
       </c>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
@@ -10440,7 +10448,7 @@
       <c r="X162" s="4"/>
       <c r="Y162" s="4"/>
       <c r="Z162" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
@@ -10454,7 +10462,7 @@
     </row>
     <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>252</v>
@@ -10468,10 +10476,10 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
       <c r="K163" s="7">
-        <v>1396</v>
+        <v>905</v>
       </c>
       <c r="L163" s="7">
-        <v>195</v>
+        <v>415</v>
       </c>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
@@ -10489,7 +10497,7 @@
       <c r="X163" s="4"/>
       <c r="Y163" s="4"/>
       <c r="Z163" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
@@ -10503,7 +10511,7 @@
     </row>
     <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>253</v>
@@ -10520,7 +10528,7 @@
         <v>1396</v>
       </c>
       <c r="L164" s="7">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
@@ -10538,7 +10546,7 @@
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
       <c r="Z164" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
@@ -10552,7 +10560,7 @@
     </row>
     <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>254</v>
@@ -10566,10 +10574,10 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
       <c r="K165" s="7">
-        <v>1425</v>
+        <v>1396</v>
       </c>
       <c r="L165" s="7">
-        <v>422</v>
+        <v>255</v>
       </c>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
@@ -10587,7 +10595,7 @@
       <c r="X165" s="4"/>
       <c r="Y165" s="4"/>
       <c r="Z165" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
@@ -10601,7 +10609,7 @@
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>255</v>
@@ -10615,7 +10623,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="7">
-        <v>1575</v>
+        <v>1425</v>
       </c>
       <c r="L166" s="7">
         <v>422</v>
@@ -10636,7 +10644,7 @@
       <c r="X166" s="4"/>
       <c r="Y166" s="4"/>
       <c r="Z166" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
@@ -10649,8 +10657,12 @@
       <c r="AI166" s="5"/>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
+      <c r="A167" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>256</v>
+      </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -10659,8 +10671,12 @@
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
+      <c r="K167" s="7">
+        <v>1575</v>
+      </c>
+      <c r="L167" s="7">
+        <v>422</v>
+      </c>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
@@ -10670,11 +10686,15 @@
       <c r="S167" s="4"/>
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
-      <c r="V167" s="4"/>
+      <c r="V167" s="7" t="s">
+        <v>256</v>
+      </c>
       <c r="W167" s="4"/>
       <c r="X167" s="4"/>
       <c r="Y167" s="4"/>
-      <c r="Z167" s="5"/>
+      <c r="Z167" s="10" t="s">
+        <v>247</v>
+      </c>
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
       <c r="AC167" s="5"/>
@@ -10686,8 +10706,12 @@
       <c r="AI167" s="5"/>
     </row>
     <row r="168" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
+      <c r="A168" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -10696,8 +10720,12 @@
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
+      <c r="K168" s="4">
+        <v>1725</v>
+      </c>
+      <c r="L168" s="4">
+        <v>422</v>
+      </c>
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
@@ -10707,11 +10735,15 @@
       <c r="S168" s="4"/>
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
-      <c r="V168" s="4"/>
+      <c r="V168" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="W168" s="4"/>
       <c r="X168" s="4"/>
       <c r="Y168" s="4"/>
-      <c r="Z168" s="5"/>
+      <c r="Z168" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
@@ -10828,12 +10860,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -10873,7 +10905,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
+++ b/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69AD22D-153C-406B-8E0B-C9E5143945DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB87BC7C-77A9-4C47-AC74-9DC8DA957A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4485" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="3810" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH58_赤山町駅_UIList" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="266">
   <si>
     <t>Type</t>
   </si>
@@ -600,6 +600,9 @@
     <t>2R</t>
   </si>
   <si>
+    <t>てこ</t>
+  </si>
+  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -753,6 +756,9 @@
     <t>T</t>
   </si>
   <si>
+    <t>着点ボタン</t>
+  </si>
+  <si>
     <t>Image/Button/ArrivalButton_Base.png</t>
   </si>
   <si>
@@ -909,7 +915,7 @@
     <t>解放98_PY</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>解放てこ</t>
   </si>
   <si>
     <t>駅扱切換</t>
@@ -925,6 +931,9 @@
   </si>
   <si>
     <t>駅扱切換_PY</t>
+  </si>
+  <si>
+    <t>駅扱切換てこ</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -1338,11 +1347,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1995,7 +2004,9 @@
         <v>48</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2020,19 +2031,19 @@
         <v>48</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W8" s="8">
         <v>0</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
@@ -2048,11 +2059,11 @@
         <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>48</v>
@@ -2078,17 +2089,17 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W9" s="8">
         <v>0</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
@@ -2104,7 +2115,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>48</v>
@@ -2164,10 +2175,12 @@
         <v>38</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2189,19 +2202,19 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W11" s="8">
         <v>0</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
@@ -2218,14 +2231,14 @@
         <v>29</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2248,14 +2261,14 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W12" s="8">
         <v>0</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
@@ -2272,10 +2285,10 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2311,7 +2324,7 @@
         <v>47</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
@@ -2332,10 +2345,12 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2357,19 +2372,19 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W14" s="8">
         <v>0</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
@@ -2386,14 +2401,14 @@
         <v>29</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2416,14 +2431,14 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W15" s="8">
         <v>0</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
@@ -2440,10 +2455,10 @@
         <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2479,7 +2494,7 @@
         <v>47</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
@@ -2500,10 +2515,12 @@
         <v>38</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2525,19 +2542,19 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W17" s="8">
         <v>0</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
@@ -2554,14 +2571,14 @@
         <v>29</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2584,14 +2601,14 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W18" s="8">
         <v>0</v>
       </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
@@ -2608,10 +2625,10 @@
         <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2647,7 +2664,7 @@
         <v>47</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
@@ -2668,10 +2685,12 @@
         <v>38</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2693,19 +2712,19 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W20" s="8">
         <v>0</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
@@ -2722,14 +2741,14 @@
         <v>29</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2752,14 +2771,14 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W21" s="8">
         <v>0</v>
       </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
@@ -2776,10 +2795,10 @@
         <v>44</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2815,7 +2834,7 @@
         <v>47</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
@@ -2836,10 +2855,12 @@
         <v>38</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2861,19 +2882,19 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W23" s="8">
         <v>0</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
@@ -2890,14 +2911,14 @@
         <v>29</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2920,14 +2941,14 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W24" s="8">
         <v>0</v>
       </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
@@ -2944,10 +2965,10 @@
         <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2983,7 +3004,7 @@
         <v>47</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
@@ -3004,10 +3025,12 @@
         <v>38</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -3029,19 +3052,19 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W26" s="8">
         <v>0</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
@@ -3058,14 +3081,14 @@
         <v>29</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -3088,14 +3111,14 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W27" s="8">
         <v>0</v>
       </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -3112,10 +3135,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3151,7 +3174,7 @@
         <v>47</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
@@ -3172,10 +3195,12 @@
         <v>38</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -3197,19 +3222,19 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W29" s="8">
         <v>0</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
@@ -3226,14 +3251,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -3256,14 +3281,14 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W30" s="8">
         <v>0</v>
       </c>
       <c r="X30" s="9"/>
       <c r="Y30" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
@@ -3280,10 +3305,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3319,7 +3344,7 @@
         <v>47</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
@@ -3340,10 +3365,12 @@
         <v>38</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -3365,7 +3392,7 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V32" s="8" t="s">
         <v>40</v>
@@ -3380,7 +3407,7 @@
         <v>42</v>
       </c>
       <c r="Z32" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
@@ -3396,10 +3423,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3435,7 +3462,7 @@
         <v>47</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
@@ -3456,10 +3483,12 @@
         <v>38</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -3481,22 +3510,22 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V34" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W34" s="8">
         <v>0</v>
       </c>
       <c r="X34" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z34" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
@@ -3512,14 +3541,14 @@
         <v>29</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -3542,14 +3571,14 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W35" s="8">
         <v>0</v>
       </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
@@ -3566,10 +3595,10 @@
         <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3605,7 +3634,7 @@
         <v>47</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
@@ -3626,10 +3655,12 @@
         <v>38</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -3651,19 +3682,19 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W37" s="8">
         <v>0</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
@@ -3680,14 +3711,14 @@
         <v>29</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -3710,14 +3741,14 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W38" s="8">
         <v>0</v>
       </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
@@ -3734,10 +3765,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3773,7 +3804,7 @@
         <v>47</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
@@ -3794,10 +3825,12 @@
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -3819,19 +3852,19 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W40" s="8">
         <v>0</v>
       </c>
       <c r="X40" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
@@ -3848,14 +3881,14 @@
         <v>29</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3878,14 +3911,14 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W41" s="8">
         <v>0</v>
       </c>
       <c r="X41" s="9"/>
       <c r="Y41" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
@@ -3902,10 +3935,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3941,7 +3974,7 @@
         <v>47</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
@@ -3959,13 +3992,15 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -3987,19 +4022,19 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W43" s="8">
         <v>0</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y43" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
@@ -4016,10 +4051,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4043,7 +4078,7 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R44" s="4">
         <v>10</v>
@@ -4055,7 +4090,7 @@
         <v>47</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
@@ -4073,13 +4108,15 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -4101,19 +4138,19 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" s="8">
+        <v>0</v>
+      </c>
+      <c r="X45" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y45" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="V45" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="W45" s="8">
-        <v>0</v>
-      </c>
-      <c r="X45" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y45" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
@@ -4130,10 +4167,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -4157,7 +4194,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="R46" s="4">
         <v>10</v>
@@ -4169,7 +4206,7 @@
         <v>47</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
@@ -4187,13 +4224,15 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -4215,19 +4254,19 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W47" s="8">
         <v>0</v>
       </c>
       <c r="X47" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y47" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
@@ -4244,10 +4283,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -4271,7 +4310,7 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R48" s="4">
         <v>10</v>
@@ -4283,7 +4322,7 @@
         <v>47</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
@@ -4301,13 +4340,15 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -4329,19 +4370,19 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V49" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W49" s="8">
         <v>0</v>
       </c>
       <c r="X49" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y49" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
@@ -4358,10 +4399,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4385,7 +4426,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="R50" s="4">
         <v>10</v>
@@ -4397,7 +4438,7 @@
         <v>47</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
@@ -4415,13 +4456,15 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -4443,19 +4486,19 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W51" s="8">
         <v>0</v>
       </c>
       <c r="X51" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y51" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
@@ -4472,10 +4515,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4499,7 +4542,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R52" s="4">
         <v>10</v>
@@ -4511,7 +4554,7 @@
         <v>47</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
@@ -4529,13 +4572,15 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -4557,19 +4602,19 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W53" s="8">
         <v>0</v>
       </c>
       <c r="X53" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y53" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
@@ -4586,10 +4631,10 @@
         <v>44</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4613,7 +4658,7 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R54" s="4">
         <v>10</v>
@@ -4625,7 +4670,7 @@
         <v>47</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
@@ -4643,13 +4688,15 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -4671,19 +4718,19 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W55" s="8">
         <v>0</v>
       </c>
       <c r="X55" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y55" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
@@ -4700,10 +4747,10 @@
         <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -4727,7 +4774,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R56" s="4">
         <v>10</v>
@@ -4739,7 +4786,7 @@
         <v>47</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
@@ -4757,10 +4804,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -4785,19 +4832,19 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V57" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W57" s="8">
         <v>0</v>
       </c>
       <c r="X57" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y57" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
@@ -4811,10 +4858,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -4839,19 +4886,19 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V58" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="W58" s="8">
+        <v>0</v>
+      </c>
+      <c r="X58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="V58" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="W58" s="8">
-        <v>0</v>
-      </c>
-      <c r="X58" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="Y58" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
@@ -4868,10 +4915,12 @@
         <v>38</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -4893,22 +4942,22 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W59" s="8">
         <v>0</v>
       </c>
       <c r="X59" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y59" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z59" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
@@ -4924,11 +4973,11 @@
         <v>29</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="4"/>
@@ -4952,14 +5001,14 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W60" s="8">
         <v>0</v>
       </c>
       <c r="X60" s="9"/>
       <c r="Y60" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
@@ -4976,11 +5025,11 @@
         <v>29</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="4"/>
@@ -5004,14 +5053,14 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W61" s="8">
         <v>0</v>
       </c>
       <c r="X61" s="9"/>
       <c r="Y61" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
@@ -5028,10 +5077,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -5067,7 +5116,7 @@
         <v>47</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
@@ -5088,10 +5137,12 @@
         <v>38</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -5113,19 +5164,19 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W63" s="8">
         <v>0</v>
       </c>
       <c r="X63" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y63" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
@@ -5142,11 +5193,11 @@
         <v>29</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="4"/>
@@ -5170,14 +5221,14 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W64" s="8">
         <v>0</v>
       </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
@@ -5194,11 +5245,11 @@
         <v>29</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="4"/>
@@ -5222,14 +5273,14 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W65" s="8">
         <v>0</v>
       </c>
       <c r="X65" s="9"/>
       <c r="Y65" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
@@ -5246,10 +5297,10 @@
         <v>44</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -5285,7 +5336,7 @@
         <v>47</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
@@ -5306,10 +5357,12 @@
         <v>38</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -5331,19 +5384,19 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V67" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W67" s="8">
         <v>0</v>
       </c>
       <c r="X67" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y67" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
@@ -5360,11 +5413,11 @@
         <v>29</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="4"/>
@@ -5388,14 +5441,14 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W68" s="8">
         <v>0</v>
       </c>
       <c r="X68" s="9"/>
       <c r="Y68" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
@@ -5412,11 +5465,11 @@
         <v>29</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="4"/>
@@ -5440,14 +5493,14 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W69" s="8">
         <v>0</v>
       </c>
       <c r="X69" s="9"/>
       <c r="Y69" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
@@ -5464,10 +5517,10 @@
         <v>44</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -5503,7 +5556,7 @@
         <v>47</v>
       </c>
       <c r="U70" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
@@ -5524,10 +5577,12 @@
         <v>38</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -5549,19 +5604,19 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W71" s="8">
         <v>0</v>
       </c>
       <c r="X71" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y71" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
@@ -5578,11 +5633,11 @@
         <v>29</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="4"/>
@@ -5606,14 +5661,14 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W72" s="8">
         <v>0</v>
       </c>
       <c r="X72" s="9"/>
       <c r="Y72" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
@@ -5630,11 +5685,11 @@
         <v>29</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="4"/>
@@ -5658,14 +5713,14 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W73" s="8">
         <v>0</v>
       </c>
       <c r="X73" s="9"/>
       <c r="Y73" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
@@ -5682,10 +5737,10 @@
         <v>44</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -5721,7 +5776,7 @@
         <v>47</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
@@ -5742,10 +5797,12 @@
         <v>38</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -5767,19 +5824,19 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V75" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W75" s="8">
         <v>0</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y75" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
@@ -5796,11 +5853,11 @@
         <v>29</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="4"/>
@@ -5824,14 +5881,14 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W76" s="8">
         <v>0</v>
       </c>
       <c r="X76" s="9"/>
       <c r="Y76" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
@@ -5848,11 +5905,11 @@
         <v>29</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="4"/>
@@ -5876,14 +5933,14 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W77" s="8">
         <v>0</v>
       </c>
       <c r="X77" s="9"/>
       <c r="Y77" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
@@ -5900,10 +5957,10 @@
         <v>44</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -5939,7 +5996,7 @@
         <v>47</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
@@ -5957,13 +6014,15 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -5985,22 +6044,22 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V79" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="W79" s="8">
         <v>0</v>
       </c>
       <c r="X79" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y79" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Z79" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
@@ -6016,11 +6075,11 @@
         <v>29</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -6044,14 +6103,14 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W80" s="8">
         <v>0</v>
       </c>
       <c r="X80" s="9"/>
       <c r="Y80" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
@@ -6065,13 +6124,15 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6093,10 +6154,10 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="V81" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="W81" s="8">
         <v>1</v>
@@ -6105,10 +6166,10 @@
         <v>41</v>
       </c>
       <c r="Y81" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Z81" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
@@ -6124,11 +6185,11 @@
         <v>29</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" s="4" t="s">
-        <v>152</v>
+      <c r="D82" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -6152,14 +6213,14 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W82" s="8">
         <v>0</v>
       </c>
       <c r="X82" s="9"/>
       <c r="Y82" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
@@ -6176,11 +6237,11 @@
         <v>29</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="4" t="s">
-        <v>152</v>
+      <c r="D83" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -6204,14 +6265,14 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W83" s="8">
         <v>0</v>
       </c>
       <c r="X83" s="9"/>
       <c r="Y83" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
@@ -6225,13 +6286,15 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -6253,22 +6316,22 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="V84" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="W84" s="8">
         <v>0</v>
       </c>
       <c r="X84" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y84" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Z84" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
@@ -6284,11 +6347,11 @@
         <v>29</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -6312,14 +6375,14 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W85" s="8">
         <v>0</v>
       </c>
       <c r="X85" s="9"/>
       <c r="Y85" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z85" s="5"/>
       <c r="AA85" s="5"/>
@@ -6336,11 +6399,11 @@
         <v>29</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -6364,17 +6427,17 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W86" s="8">
         <v>0</v>
       </c>
       <c r="X86" s="9"/>
       <c r="Y86" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z86" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="Z86" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
@@ -6390,11 +6453,11 @@
         <v>29</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -6418,16 +6481,16 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W87" s="8">
         <v>0</v>
       </c>
       <c r="X87" s="9"/>
       <c r="Y87" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z87" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z87" s="12"/>
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
@@ -6442,11 +6505,11 @@
         <v>29</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -6470,16 +6533,16 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W88" s="8">
         <v>0</v>
       </c>
       <c r="X88" s="9"/>
       <c r="Y88" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z88" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z88" s="12"/>
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
@@ -6494,11 +6557,11 @@
         <v>29</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -6522,16 +6585,16 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W89" s="8">
         <v>0</v>
       </c>
       <c r="X89" s="9"/>
       <c r="Y89" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z89" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z89" s="12"/>
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
@@ -6546,11 +6609,11 @@
         <v>29</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -6574,17 +6637,17 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W90" s="8">
         <v>0</v>
       </c>
       <c r="X90" s="9"/>
       <c r="Y90" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z90" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="Z90" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
@@ -6600,11 +6663,11 @@
         <v>29</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -6628,16 +6691,16 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W91" s="8">
         <v>0</v>
       </c>
       <c r="X91" s="9"/>
       <c r="Y91" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z91" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z91" s="12"/>
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
@@ -6652,11 +6715,11 @@
         <v>29</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -6680,16 +6743,16 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W92" s="8">
         <v>0</v>
       </c>
       <c r="X92" s="9"/>
       <c r="Y92" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z92" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z92" s="12"/>
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
@@ -6704,11 +6767,11 @@
         <v>29</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -6732,17 +6795,17 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W93" s="8">
         <v>0</v>
       </c>
       <c r="X93" s="9"/>
       <c r="Y93" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z93" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="Z93" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
@@ -6758,11 +6821,11 @@
         <v>29</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -6786,16 +6849,16 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W94" s="8">
         <v>0</v>
       </c>
       <c r="X94" s="9"/>
       <c r="Y94" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z94" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z94" s="12"/>
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
@@ -6810,11 +6873,11 @@
         <v>29</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -6838,16 +6901,16 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W95" s="8">
         <v>0</v>
       </c>
       <c r="X95" s="9"/>
       <c r="Y95" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z95" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z95" s="12"/>
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
@@ -6862,11 +6925,11 @@
         <v>29</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -6890,16 +6953,16 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W96" s="8">
         <v>0</v>
       </c>
       <c r="X96" s="9"/>
       <c r="Y96" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z96" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z96" s="12"/>
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
@@ -6914,11 +6977,11 @@
         <v>29</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -6942,16 +7005,16 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W97" s="8">
         <v>0</v>
       </c>
       <c r="X97" s="9"/>
       <c r="Y97" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z97" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z97" s="12"/>
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
@@ -6966,11 +7029,11 @@
         <v>29</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -6994,17 +7057,17 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W98" s="8">
         <v>0</v>
       </c>
       <c r="X98" s="9"/>
       <c r="Y98" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z98" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="Z98" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
@@ -7020,11 +7083,11 @@
         <v>29</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -7048,17 +7111,17 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W99" s="8">
         <v>0</v>
       </c>
       <c r="X99" s="9"/>
       <c r="Y99" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z99" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="Z99" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
@@ -7074,11 +7137,11 @@
         <v>29</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -7102,17 +7165,17 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W100" s="8">
         <v>0</v>
       </c>
       <c r="X100" s="9"/>
       <c r="Y100" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z100" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="Z100" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
@@ -7128,11 +7191,11 @@
         <v>29</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -7156,17 +7219,17 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W101" s="8">
         <v>0</v>
       </c>
       <c r="X101" s="9"/>
       <c r="Y101" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z101" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="Z101" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
@@ -7182,11 +7245,11 @@
         <v>29</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -7210,16 +7273,16 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W102" s="8">
         <v>0</v>
       </c>
       <c r="X102" s="9"/>
       <c r="Y102" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z102" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z102" s="12"/>
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
@@ -7234,11 +7297,11 @@
         <v>29</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -7262,16 +7325,16 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
       <c r="V103" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W103" s="8">
         <v>0</v>
       </c>
       <c r="X103" s="9"/>
       <c r="Y103" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z103" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z103" s="12"/>
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
@@ -7286,11 +7349,11 @@
         <v>29</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -7314,16 +7377,16 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W104" s="8">
         <v>0</v>
       </c>
       <c r="X104" s="9"/>
       <c r="Y104" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z104" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z104" s="12"/>
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
       <c r="AC104" s="5"/>
@@ -7338,11 +7401,11 @@
         <v>29</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -7366,16 +7429,16 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
       <c r="V105" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W105" s="8">
         <v>0</v>
       </c>
       <c r="X105" s="9"/>
       <c r="Y105" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z105" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z105" s="12"/>
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
       <c r="AC105" s="5"/>
@@ -7390,11 +7453,11 @@
         <v>29</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -7418,16 +7481,16 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
       <c r="V106" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W106" s="8">
         <v>0</v>
       </c>
       <c r="X106" s="9"/>
       <c r="Y106" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z106" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z106" s="12"/>
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
       <c r="AC106" s="5"/>
@@ -7442,11 +7505,11 @@
         <v>29</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -7470,17 +7533,17 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
       <c r="V107" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W107" s="8">
         <v>0</v>
       </c>
       <c r="X107" s="9"/>
       <c r="Y107" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z107" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="Z107" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
@@ -7496,11 +7559,11 @@
         <v>29</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -7524,16 +7587,16 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
       <c r="V108" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W108" s="8">
         <v>0</v>
       </c>
       <c r="X108" s="9"/>
       <c r="Y108" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z108" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z108" s="12"/>
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
       <c r="AC108" s="5"/>
@@ -7548,11 +7611,11 @@
         <v>29</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -7576,16 +7639,16 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
       <c r="V109" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W109" s="8">
         <v>0</v>
       </c>
       <c r="X109" s="9"/>
       <c r="Y109" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z109" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z109" s="12"/>
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
       <c r="AC109" s="5"/>
@@ -7600,11 +7663,11 @@
         <v>29</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -7628,16 +7691,16 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
       <c r="V110" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W110" s="8">
         <v>0</v>
       </c>
       <c r="X110" s="9"/>
       <c r="Y110" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z110" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z110" s="12"/>
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
       <c r="AC110" s="5"/>
@@ -7652,11 +7715,11 @@
         <v>29</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -7680,16 +7743,16 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
       <c r="V111" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W111" s="8">
         <v>0</v>
       </c>
       <c r="X111" s="9"/>
       <c r="Y111" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z111" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z111" s="12"/>
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
       <c r="AC111" s="5"/>
@@ -7704,11 +7767,11 @@
         <v>29</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -7732,16 +7795,16 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
       <c r="V112" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W112" s="8">
         <v>0</v>
       </c>
       <c r="X112" s="9"/>
       <c r="Y112" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z112" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z112" s="12"/>
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
       <c r="AC112" s="5"/>
@@ -7756,11 +7819,11 @@
         <v>29</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -7784,17 +7847,17 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
       <c r="V113" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W113" s="8">
         <v>0</v>
       </c>
       <c r="X113" s="9"/>
       <c r="Y113" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z113" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="Z113" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
@@ -7810,11 +7873,11 @@
         <v>29</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -7838,16 +7901,16 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
       <c r="V114" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W114" s="8">
         <v>0</v>
       </c>
       <c r="X114" s="9"/>
       <c r="Y114" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z114" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z114" s="12"/>
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
       <c r="AC114" s="5"/>
@@ -7862,11 +7925,11 @@
         <v>29</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -7890,17 +7953,17 @@
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
       <c r="V115" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W115" s="8">
         <v>0</v>
       </c>
       <c r="X115" s="9"/>
       <c r="Y115" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z115" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="Z115" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
@@ -7916,11 +7979,11 @@
         <v>29</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -7944,16 +8007,16 @@
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
       <c r="V116" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W116" s="8">
         <v>0</v>
       </c>
       <c r="X116" s="9"/>
       <c r="Y116" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z116" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z116" s="12"/>
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
       <c r="AC116" s="5"/>
@@ -7968,11 +8031,11 @@
         <v>29</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -7996,16 +8059,16 @@
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
       <c r="V117" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W117" s="8">
         <v>0</v>
       </c>
       <c r="X117" s="9"/>
       <c r="Y117" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z117" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z117" s="12"/>
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
       <c r="AC117" s="5"/>
@@ -8020,11 +8083,11 @@
         <v>29</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -8048,16 +8111,16 @@
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
       <c r="V118" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W118" s="8">
         <v>0</v>
       </c>
       <c r="X118" s="9"/>
       <c r="Y118" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z118" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z118" s="12"/>
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
       <c r="AC118" s="5"/>
@@ -8072,11 +8135,11 @@
         <v>29</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -8100,16 +8163,16 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
       <c r="V119" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W119" s="8">
         <v>0</v>
       </c>
       <c r="X119" s="9"/>
       <c r="Y119" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z119" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z119" s="12"/>
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
@@ -8124,11 +8187,11 @@
         <v>29</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -8152,16 +8215,16 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
       <c r="V120" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W120" s="8">
         <v>0</v>
       </c>
       <c r="X120" s="9"/>
       <c r="Y120" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z120" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z120" s="12"/>
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
       <c r="AC120" s="5"/>
@@ -8176,11 +8239,11 @@
         <v>29</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -8204,16 +8267,16 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
       <c r="V121" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W121" s="8">
         <v>0</v>
       </c>
       <c r="X121" s="9"/>
       <c r="Y121" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z121" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z121" s="12"/>
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
       <c r="AC121" s="5"/>
@@ -8228,11 +8291,11 @@
         <v>29</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -8256,16 +8319,16 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W122" s="8">
         <v>0</v>
       </c>
       <c r="X122" s="9"/>
       <c r="Y122" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z122" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z122" s="12"/>
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
       <c r="AC122" s="5"/>
@@ -8280,11 +8343,11 @@
         <v>29</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -8308,16 +8371,16 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
       <c r="V123" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W123" s="8">
         <v>0</v>
       </c>
       <c r="X123" s="9"/>
       <c r="Y123" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z123" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z123" s="12"/>
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
       <c r="AC123" s="5"/>
@@ -8332,11 +8395,11 @@
         <v>29</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -8360,16 +8423,16 @@
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
       <c r="V124" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W124" s="8">
         <v>0</v>
       </c>
       <c r="X124" s="9"/>
       <c r="Y124" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z124" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z124" s="12"/>
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
       <c r="AC124" s="5"/>
@@ -8384,11 +8447,11 @@
         <v>29</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -8412,16 +8475,16 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
       <c r="V125" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W125" s="8">
         <v>0</v>
       </c>
       <c r="X125" s="9"/>
       <c r="Y125" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z125" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z125" s="12"/>
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
       <c r="AC125" s="5"/>
@@ -8436,11 +8499,11 @@
         <v>29</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -8464,17 +8527,17 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
       <c r="V126" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W126" s="8">
         <v>0</v>
       </c>
       <c r="X126" s="9"/>
       <c r="Y126" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z126" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="Z126" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
@@ -8490,11 +8553,11 @@
         <v>29</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -8518,16 +8581,16 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
       <c r="V127" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W127" s="8">
         <v>0</v>
       </c>
       <c r="X127" s="9"/>
       <c r="Y127" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z127" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z127" s="12"/>
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
       <c r="AC127" s="5"/>
@@ -8542,11 +8605,11 @@
         <v>29</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -8570,16 +8633,16 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
       <c r="V128" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W128" s="8">
         <v>0</v>
       </c>
       <c r="X128" s="9"/>
       <c r="Y128" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z128" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z128" s="12"/>
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
       <c r="AC128" s="5"/>
@@ -8594,11 +8657,11 @@
         <v>29</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -8622,16 +8685,16 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
       <c r="V129" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W129" s="8">
         <v>0</v>
       </c>
       <c r="X129" s="9"/>
       <c r="Y129" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z129" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z129" s="12"/>
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
       <c r="AC129" s="5"/>
@@ -8646,11 +8709,11 @@
         <v>29</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -8674,17 +8737,17 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
       <c r="V130" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W130" s="8">
         <v>0</v>
       </c>
       <c r="X130" s="9"/>
       <c r="Y130" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z130" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="Z130" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
@@ -8700,11 +8763,11 @@
         <v>29</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -8728,16 +8791,16 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
       <c r="V131" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W131" s="8">
         <v>0</v>
       </c>
       <c r="X131" s="9"/>
       <c r="Y131" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z131" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z131" s="12"/>
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
       <c r="AC131" s="5"/>
@@ -8752,11 +8815,11 @@
         <v>29</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -8780,16 +8843,16 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W132" s="8">
         <v>0</v>
       </c>
       <c r="X132" s="9"/>
       <c r="Y132" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z132" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z132" s="12"/>
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
       <c r="AC132" s="5"/>
@@ -8804,11 +8867,11 @@
         <v>29</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -8832,16 +8895,16 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W133" s="8">
         <v>0</v>
       </c>
       <c r="X133" s="9"/>
       <c r="Y133" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z133" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z133" s="12"/>
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
       <c r="AC133" s="5"/>
@@ -8856,11 +8919,11 @@
         <v>29</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -8884,16 +8947,16 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W134" s="8">
         <v>0</v>
       </c>
       <c r="X134" s="9"/>
       <c r="Y134" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z134" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z134" s="12"/>
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
       <c r="AC134" s="5"/>
@@ -8908,11 +8971,11 @@
         <v>29</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -8936,17 +8999,17 @@
       <c r="T135" s="6"/>
       <c r="U135" s="6"/>
       <c r="V135" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W135" s="8">
         <v>0</v>
       </c>
       <c r="X135" s="9"/>
       <c r="Y135" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z135" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="Z135" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="AA135" s="6"/>
       <c r="AB135" s="6"/>
@@ -8962,11 +9025,11 @@
         <v>29</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -8990,16 +9053,16 @@
       <c r="T136" s="6"/>
       <c r="U136" s="6"/>
       <c r="V136" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W136" s="8">
         <v>0</v>
       </c>
       <c r="X136" s="9"/>
       <c r="Y136" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z136" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z136" s="12"/>
       <c r="AA136" s="6"/>
       <c r="AB136" s="6"/>
       <c r="AC136" s="6"/>
@@ -9014,11 +9077,11 @@
         <v>29</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -9042,16 +9105,16 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W137" s="8">
         <v>0</v>
       </c>
       <c r="X137" s="9"/>
       <c r="Y137" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z137" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z137" s="12"/>
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
       <c r="AC137" s="5"/>
@@ -9066,11 +9129,11 @@
         <v>29</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -9094,16 +9157,16 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
       <c r="V138" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W138" s="8">
         <v>0</v>
       </c>
       <c r="X138" s="9"/>
       <c r="Y138" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z138" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z138" s="12"/>
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
@@ -9118,11 +9181,11 @@
         <v>29</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -9146,17 +9209,17 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
       <c r="V139" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W139" s="8">
         <v>0</v>
       </c>
       <c r="X139" s="9"/>
       <c r="Y139" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z139" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="Z139" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
@@ -9172,11 +9235,11 @@
         <v>29</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -9200,16 +9263,16 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W140" s="8">
         <v>0</v>
       </c>
       <c r="X140" s="9"/>
       <c r="Y140" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z140" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z140" s="12"/>
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
       <c r="AC140" s="5"/>
@@ -9224,11 +9287,11 @@
         <v>29</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -9252,16 +9315,16 @@
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
       <c r="V141" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W141" s="8">
         <v>0</v>
       </c>
       <c r="X141" s="9"/>
       <c r="Y141" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z141" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z141" s="12"/>
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
@@ -9276,11 +9339,11 @@
         <v>29</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -9304,16 +9367,16 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W142" s="8">
         <v>0</v>
       </c>
       <c r="X142" s="9"/>
       <c r="Y142" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z142" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z142" s="12"/>
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
       <c r="AC142" s="5"/>
@@ -9328,11 +9391,11 @@
         <v>29</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -9356,16 +9419,16 @@
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
       <c r="V143" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W143" s="8">
         <v>0</v>
       </c>
       <c r="X143" s="9"/>
       <c r="Y143" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z143" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z143" s="12"/>
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
@@ -9380,11 +9443,11 @@
         <v>29</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -9408,16 +9471,16 @@
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
       <c r="V144" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W144" s="8">
         <v>0</v>
       </c>
       <c r="X144" s="9"/>
       <c r="Y144" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z144" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z144" s="12"/>
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
       <c r="AC144" s="5"/>
@@ -9432,11 +9495,11 @@
         <v>29</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -9460,16 +9523,16 @@
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
       <c r="V145" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W145" s="8">
         <v>0</v>
       </c>
       <c r="X145" s="9"/>
       <c r="Y145" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z145" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z145" s="12"/>
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
       <c r="AC145" s="5"/>
@@ -9484,11 +9547,11 @@
         <v>29</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -9512,16 +9575,16 @@
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
       <c r="V146" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W146" s="8">
         <v>0</v>
       </c>
       <c r="X146" s="9"/>
       <c r="Y146" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z146" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z146" s="12"/>
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
@@ -9536,11 +9599,11 @@
         <v>29</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -9564,16 +9627,16 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
       <c r="V147" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W147" s="8">
         <v>0</v>
       </c>
       <c r="X147" s="9"/>
       <c r="Y147" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z147" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z147" s="12"/>
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
@@ -9588,11 +9651,11 @@
         <v>29</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -9616,16 +9679,16 @@
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W148" s="8">
         <v>0</v>
       </c>
       <c r="X148" s="9"/>
       <c r="Y148" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z148" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="Z148" s="12"/>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
@@ -9640,11 +9703,11 @@
         <v>29</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -9668,17 +9731,17 @@
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
       <c r="V149" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W149" s="8">
         <v>0</v>
       </c>
       <c r="X149" s="9"/>
       <c r="Y149" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z149" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="Z149" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
@@ -9694,11 +9757,11 @@
         <v>29</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -9722,17 +9785,17 @@
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
       <c r="V150" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W150" s="8">
         <v>0</v>
       </c>
       <c r="X150" s="9"/>
       <c r="Y150" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z150" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="Z150" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
@@ -9748,11 +9811,11 @@
         <v>29</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -9776,17 +9839,17 @@
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
       <c r="V151" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W151" s="8">
         <v>0</v>
       </c>
       <c r="X151" s="9"/>
       <c r="Y151" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z151" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="Z151" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
@@ -9802,11 +9865,11 @@
         <v>29</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -9830,17 +9893,17 @@
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
       <c r="V152" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W152" s="8">
         <v>0</v>
       </c>
       <c r="X152" s="9"/>
       <c r="Y152" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z152" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="Z152" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
@@ -9856,11 +9919,11 @@
         <v>29</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -9884,14 +9947,14 @@
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
       <c r="V153" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W153" s="8">
         <v>0</v>
       </c>
       <c r="X153" s="9"/>
       <c r="Y153" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
@@ -9908,11 +9971,11 @@
         <v>29</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -9936,14 +9999,14 @@
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
       <c r="V154" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W154" s="8">
         <v>0</v>
       </c>
       <c r="X154" s="9"/>
       <c r="Y154" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
@@ -9960,11 +10023,11 @@
         <v>29</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -9988,14 +10051,14 @@
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
       <c r="V155" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W155" s="8">
         <v>0</v>
       </c>
       <c r="X155" s="9"/>
       <c r="Y155" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
@@ -10012,11 +10075,11 @@
         <v>29</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -10040,14 +10103,14 @@
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
       <c r="V156" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W156" s="8">
         <v>0</v>
       </c>
       <c r="X156" s="9"/>
       <c r="Y156" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
@@ -10064,11 +10127,11 @@
         <v>29</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -10092,14 +10155,14 @@
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
       <c r="V157" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W157" s="8">
         <v>0</v>
       </c>
       <c r="X157" s="9"/>
       <c r="Y157" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
@@ -10113,14 +10176,14 @@
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C158" s="4"/>
-      <c r="D158" s="12" t="s">
-        <v>247</v>
+      <c r="D158" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -10147,7 +10210,7 @@
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
       <c r="Y158" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
@@ -10161,14 +10224,14 @@
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C159" s="4"/>
-      <c r="D159" s="12" t="s">
-        <v>247</v>
+      <c r="D159" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -10195,7 +10258,7 @@
       <c r="W159" s="4"/>
       <c r="X159" s="4"/>
       <c r="Y159" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
@@ -10209,14 +10272,14 @@
     </row>
     <row r="160" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B160" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C160" s="4"/>
+      <c r="D160" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -10243,7 +10306,7 @@
       <c r="W160" s="4"/>
       <c r="X160" s="4"/>
       <c r="Y160" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
@@ -10257,14 +10320,14 @@
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C161" s="4"/>
-      <c r="D161" s="12" t="s">
-        <v>247</v>
+      <c r="D161" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -10291,7 +10354,7 @@
       <c r="W161" s="4"/>
       <c r="X161" s="4"/>
       <c r="Y161" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z161" s="5"/>
       <c r="AA161" s="5"/>
@@ -10305,14 +10368,14 @@
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C162" s="4"/>
-      <c r="D162" s="12" t="s">
-        <v>247</v>
+      <c r="D162" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -10339,7 +10402,7 @@
       <c r="W162" s="4"/>
       <c r="X162" s="4"/>
       <c r="Y162" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z162" s="5"/>
       <c r="AA162" s="5"/>
@@ -10353,14 +10416,14 @@
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C163" s="4"/>
-      <c r="D163" s="12" t="s">
-        <v>247</v>
+      <c r="D163" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -10387,7 +10450,7 @@
       <c r="W163" s="4"/>
       <c r="X163" s="4"/>
       <c r="Y163" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z163" s="5"/>
       <c r="AA163" s="5"/>
@@ -10401,14 +10464,14 @@
     </row>
     <row r="164" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C164" s="4"/>
-      <c r="D164" s="12" t="s">
-        <v>247</v>
+      <c r="D164" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -10435,7 +10498,7 @@
       <c r="W164" s="4"/>
       <c r="X164" s="4"/>
       <c r="Y164" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z164" s="5"/>
       <c r="AA164" s="5"/>
@@ -10449,14 +10512,14 @@
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C165" s="4"/>
-      <c r="D165" s="12" t="s">
-        <v>247</v>
+      <c r="D165" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -10483,7 +10546,7 @@
       <c r="W165" s="4"/>
       <c r="X165" s="4"/>
       <c r="Y165" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z165" s="5"/>
       <c r="AA165" s="5"/>
@@ -10497,14 +10560,14 @@
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C166" s="4"/>
-      <c r="D166" s="12" t="s">
-        <v>247</v>
+      <c r="D166" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
@@ -10531,7 +10594,7 @@
       <c r="W166" s="4"/>
       <c r="X166" s="4"/>
       <c r="Y166" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z166" s="5"/>
       <c r="AA166" s="5"/>
@@ -10545,14 +10608,14 @@
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C167" s="4"/>
-      <c r="D167" s="12" t="s">
-        <v>247</v>
+      <c r="D167" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -10579,7 +10642,7 @@
       <c r="W167" s="4"/>
       <c r="X167" s="4"/>
       <c r="Y167" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z167" s="5"/>
       <c r="AA167" s="5"/>
@@ -10593,14 +10656,14 @@
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C168" s="4"/>
-      <c r="D168" s="12" t="s">
-        <v>247</v>
+      <c r="D168" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -10627,7 +10690,7 @@
       <c r="W168" s="4"/>
       <c r="X168" s="4"/>
       <c r="Y168" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z168" s="5"/>
       <c r="AA168" s="5"/>
@@ -10749,18 +10812,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -10792,17 +10855,17 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
+++ b/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB87BC7C-77A9-4C47-AC74-9DC8DA957A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B51CFA1-64B9-4382-9F46-26C06DEFC1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3810" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="3360" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH58_赤山町駅_UIList" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
     <t>2R</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>物理てこ</t>
   </si>
   <si>
     <t>0,1</t>
@@ -618,7 +618,7 @@
     <t>2R_G</t>
   </si>
   <si>
-    <t>信号機</t>
+    <t>信号機表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
@@ -834,7 +834,7 @@
     <t>P21_PG</t>
   </si>
   <si>
-    <t>転てつ器</t>
+    <t>転てつ器表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
@@ -915,7 +915,7 @@
     <t>解放98_PY</t>
   </si>
   <si>
-    <t>解放てこ</t>
+    <t>解放表示灯</t>
   </si>
   <si>
     <t>駅扱切換</t>
@@ -933,7 +933,7 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
-    <t>駅扱切換てこ</t>
+    <t>駅扱切換表示灯</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -948,7 +948,7 @@
     <t>TH59_11RT_1</t>
   </si>
   <si>
-    <t>軌道回路</t>
+    <t>軌道回路表示灯</t>
   </si>
   <si>
     <t>0,1,2</t>
@@ -1182,7 +1182,7 @@
     <t>停電_R</t>
   </si>
   <si>
-    <t>ランプ</t>
+    <t>状態表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>

--- a/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
+++ b/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C49966-4E25-4C85-8081-5E01D6CC3A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23364445-482D-40A6-A08E-461825D0DBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3720" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="4575" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH58_赤山町駅_UIList" sheetId="1" r:id="rId1"/>

--- a/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
+++ b/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23364445-482D-40A6-A08E-461825D0DBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10D11F3-BA9D-434F-98D2-FC78B0B5FBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="4575" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="3690" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH58_赤山町駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="339">
   <si>
     <t>Type</t>
   </si>
@@ -606,6 +606,12 @@
     <t>1L</t>
   </si>
   <si>
+    <t>物理てこ</t>
+  </si>
+  <si>
+    <t>TH58_1</t>
+  </si>
+  <si>
     <t>-1,1</t>
   </si>
   <si>
@@ -633,7 +639,7 @@
     <t>2R</t>
   </si>
   <si>
-    <t>物理てこ</t>
+    <t>TH58_2</t>
   </si>
   <si>
     <t>0,1</t>
@@ -654,6 +660,9 @@
     <t>信号機表示灯</t>
   </si>
   <si>
+    <t>赤山町上り場内2R</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
   </si>
   <si>
@@ -666,6 +675,9 @@
     <t>3L</t>
   </si>
   <si>
+    <t>TH58_3</t>
+  </si>
+  <si>
     <t>-1,0</t>
   </si>
   <si>
@@ -678,66 +690,108 @@
     <t>3L_G</t>
   </si>
   <si>
+    <t>赤山町下り出発3L</t>
+  </si>
+  <si>
     <t>3L_Label</t>
   </si>
   <si>
     <t>4L</t>
   </si>
   <si>
+    <t>TH58_4</t>
+  </si>
+  <si>
     <t>4L_G</t>
   </si>
   <si>
+    <t>赤山町下り出発4L</t>
+  </si>
+  <si>
     <t>4L_Label</t>
   </si>
   <si>
     <t>5L</t>
   </si>
   <si>
+    <t>TH58_5</t>
+  </si>
+  <si>
     <t>5L_G</t>
   </si>
   <si>
+    <t>赤山町下り出発5L</t>
+  </si>
+  <si>
     <t>5L_Label</t>
   </si>
   <si>
     <t>6R</t>
   </si>
   <si>
+    <t>TH58_6</t>
+  </si>
+  <si>
     <t>6R_G</t>
   </si>
   <si>
+    <t>赤山町上り出発6R</t>
+  </si>
+  <si>
     <t>6R_Label</t>
   </si>
   <si>
     <t>7R</t>
   </si>
   <si>
+    <t>TH58_7</t>
+  </si>
+  <si>
     <t>7R_G</t>
   </si>
   <si>
+    <t>赤山町上り出発7R</t>
+  </si>
+  <si>
     <t>7R_Label</t>
   </si>
   <si>
     <t>8R</t>
   </si>
   <si>
+    <t>TH58_8</t>
+  </si>
+  <si>
     <t>8R_G</t>
   </si>
   <si>
+    <t>赤山町上り出発8R</t>
+  </si>
+  <si>
     <t>8R_Label</t>
   </si>
   <si>
     <t>9L</t>
   </si>
   <si>
+    <t>TH58_9</t>
+  </si>
+  <si>
     <t>9L_G</t>
   </si>
   <si>
+    <t>赤山町下り場内9L</t>
+  </si>
+  <si>
     <t>9L_Label</t>
   </si>
   <si>
     <t>10L</t>
   </si>
   <si>
+    <t>TH58_10</t>
+  </si>
+  <si>
     <t>10Lは方向てこ　白LR</t>
   </si>
   <si>
@@ -747,6 +801,9 @@
     <t>31R</t>
   </si>
   <si>
+    <t>TH58_31</t>
+  </si>
+  <si>
     <t>Image/Lever/Lever_Green_N.png,Image/Lever/Lever_Green_R.png</t>
   </si>
   <si>
@@ -756,6 +813,9 @@
     <t>31R_Y</t>
   </si>
   <si>
+    <t>赤山町入換31R</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/Y.png</t>
   </si>
   <si>
@@ -765,21 +825,33 @@
     <t>32L</t>
   </si>
   <si>
+    <t>TH58_32</t>
+  </si>
+  <si>
     <t>Image/Lever/Lever_Green_L.png,Image/Lever/Lever_Green_N.png</t>
   </si>
   <si>
     <t>32L_Y</t>
   </si>
   <si>
+    <t>赤山町入換32R</t>
+  </si>
+  <si>
     <t>32L_Label</t>
   </si>
   <si>
     <t>33L</t>
   </si>
   <si>
+    <t>TH58_33</t>
+  </si>
+  <si>
     <t>33L_Y</t>
   </si>
   <si>
+    <t>赤山町入換33R</t>
+  </si>
+  <si>
     <t>33L_Label</t>
   </si>
   <si>
@@ -792,6 +864,9 @@
     <t>着点ボタン</t>
   </si>
   <si>
+    <t>TH58_TP</t>
+  </si>
+  <si>
     <t>Image/Button/ArrivalButton_Base.png</t>
   </si>
   <si>
@@ -804,36 +879,54 @@
     <t>A</t>
   </si>
   <si>
+    <t>TH58_AP</t>
+  </si>
+  <si>
     <t>A_Label</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>TH58_BP</t>
+  </si>
+  <si>
     <t>B_Label</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>TH58_CP</t>
+  </si>
+  <si>
     <t>C_Label</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
+    <t>TH58_DP</t>
+  </si>
+  <si>
     <t>D_Label</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
+    <t>TH58_EP</t>
+  </si>
+  <si>
     <t>E_Label</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
+    <t>TH58_SP</t>
+  </si>
+  <si>
     <t>S_Label</t>
   </si>
   <si>
@@ -849,6 +942,12 @@
     <t>警報下り接近</t>
   </si>
   <si>
+    <t>W21</t>
+  </si>
+  <si>
+    <t>TH58_21</t>
+  </si>
+  <si>
     <t>P21</t>
   </si>
   <si>
@@ -864,70 +963,115 @@
     <t>転てつ器単独てこはNCR</t>
   </si>
   <si>
-    <t>P21_PG</t>
+    <t>W21_PG</t>
   </si>
   <si>
     <t>転てつ器表示灯</t>
   </si>
   <si>
+    <t>TH58_W21</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
-    <t>P21_PY</t>
+    <t>W21_PY</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PY.png</t>
   </si>
   <si>
-    <t>P21_Label</t>
+    <t>W21_Label</t>
+  </si>
+  <si>
+    <t>W22</t>
+  </si>
+  <si>
+    <t>TH58_22</t>
   </si>
   <si>
     <t>P22</t>
   </si>
   <si>
-    <t>P22_PG</t>
-  </si>
-  <si>
-    <t>P22_PY</t>
-  </si>
-  <si>
-    <t>P22_Label</t>
+    <t>W22_PG</t>
+  </si>
+  <si>
+    <t>TH58_W22</t>
+  </si>
+  <si>
+    <t>W22_PY</t>
+  </si>
+  <si>
+    <t>W22_Label</t>
+  </si>
+  <si>
+    <t>W23</t>
+  </si>
+  <si>
+    <t>TH58_23</t>
   </si>
   <si>
     <t>P23</t>
   </si>
   <si>
-    <t>P23_PG</t>
-  </si>
-  <si>
-    <t>P23_PY</t>
-  </si>
-  <si>
-    <t>P23_Label</t>
+    <t>W23_PG</t>
+  </si>
+  <si>
+    <t>TH58_W23</t>
+  </si>
+  <si>
+    <t>W23_PY</t>
+  </si>
+  <si>
+    <t>W23_Label</t>
+  </si>
+  <si>
+    <t>W24</t>
+  </si>
+  <si>
+    <t>TH58_24</t>
   </si>
   <si>
     <t>P24</t>
   </si>
   <si>
-    <t>P24_PG</t>
-  </si>
-  <si>
-    <t>P24_PY</t>
-  </si>
-  <si>
-    <t>P24_Label</t>
+    <t>W24_PG</t>
+  </si>
+  <si>
+    <t>TH58_W24</t>
+  </si>
+  <si>
+    <t>W24_PY</t>
+  </si>
+  <si>
+    <t>W24_Label</t>
+  </si>
+  <si>
+    <t>W25</t>
+  </si>
+  <si>
+    <t>TH58_25</t>
   </si>
   <si>
     <t>P25</t>
   </si>
   <si>
-    <t>P25_PG</t>
-  </si>
-  <si>
-    <t>P25_PY</t>
-  </si>
-  <si>
-    <t>P25_Label</t>
+    <t>W25_PG</t>
+  </si>
+  <si>
+    <t>TH58_W25</t>
+  </si>
+  <si>
+    <t>W25_PY</t>
+  </si>
+  <si>
+    <t>W25_Label</t>
   </si>
   <si>
     <t>KeyImage</t>
@@ -939,9 +1083,6 @@
     <t>物理鍵てこ</t>
   </si>
   <si>
-    <t>TH58_98</t>
-  </si>
-  <si>
     <t>0,1,10,11</t>
   </si>
   <si>
@@ -957,15 +1098,9 @@
     <t>解放表示灯</t>
   </si>
   <si>
-    <t>TH58_98R</t>
-  </si>
-  <si>
     <t>駅扱切換</t>
   </si>
   <si>
-    <t>TH58_81</t>
-  </si>
-  <si>
     <t>-1,1,-11,11</t>
   </si>
   <si>
@@ -981,33 +1116,24 @@
     <t>駅扱切換表示灯</t>
   </si>
   <si>
-    <t>TH58_81L</t>
-  </si>
-  <si>
     <t>駅扱切換_PG</t>
   </si>
   <si>
-    <t>TH58_81R</t>
-  </si>
-  <si>
     <t>解放99</t>
   </si>
   <si>
-    <t>TH58_99</t>
-  </si>
-  <si>
     <t>解放99_PY</t>
   </si>
   <si>
-    <t>TH58_99R</t>
-  </si>
-  <si>
     <t>TH59_11RT_1</t>
   </si>
   <si>
     <t>軌道回路表示灯</t>
   </si>
   <si>
+    <t>TH59_11RT</t>
+  </si>
+  <si>
     <t>0,1,2</t>
   </si>
   <si>
@@ -1020,13 +1146,19 @@
     <t>TH59_11RT_2</t>
   </si>
   <si>
-    <t>TH59_21イT_P21N_1</t>
-  </si>
-  <si>
-    <t>TH59_21イT_P21R_1</t>
-  </si>
-  <si>
-    <t>TH59_21イT_P21R_2</t>
+    <t>TH59_21イT_W21N_1</t>
+  </si>
+  <si>
+    <t>TH59_21イT</t>
+  </si>
+  <si>
+    <t>TH59_W21</t>
+  </si>
+  <si>
+    <t>TH59_21イT_W21R_1</t>
+  </si>
+  <si>
+    <t>TH59_21イT_W21R_2</t>
   </si>
   <si>
     <t>Image/Light/112N.png,Image/Light/112Y.png,Image/Light/112R.png</t>
@@ -1035,27 +1167,36 @@
     <t>112度</t>
   </si>
   <si>
-    <t>TH59_21ロT_P21N_1</t>
-  </si>
-  <si>
-    <t>TH59_21ロT_P21N_2</t>
-  </si>
-  <si>
-    <t>TH59_21ロT_P21R_1</t>
-  </si>
-  <si>
-    <t>TH59_21ロT_P21R_2</t>
+    <t>TH59_21ロT_W21N_1</t>
+  </si>
+  <si>
+    <t>TH59_21ロT</t>
+  </si>
+  <si>
+    <t>TH59_21ロT_W21N_2</t>
+  </si>
+  <si>
+    <t>TH59_21ロT_W21R_1</t>
+  </si>
+  <si>
+    <t>TH59_21ロT_W21R_2</t>
   </si>
   <si>
     <t>NA1T_1</t>
   </si>
   <si>
+    <t>NA1T</t>
+  </si>
+  <si>
     <t>NA2T_1</t>
   </si>
   <si>
     <t>方向てこ表示灯</t>
   </si>
   <si>
+    <t>NA2T</t>
+  </si>
+  <si>
     <t>NA2T_2</t>
   </si>
   <si>
@@ -1086,141 +1227,186 @@
     <t>TH58_2RT_1</t>
   </si>
   <si>
+    <t>TH58_2RT</t>
+  </si>
+  <si>
     <t>TH58_2RT_2</t>
   </si>
   <si>
-    <t>TH58_21T_P21N_1</t>
-  </si>
-  <si>
-    <t>TH58_21T_P21N_2</t>
-  </si>
-  <si>
-    <t>TH58_21T_P21R_1</t>
-  </si>
-  <si>
-    <t>TH58_21T_P21R_2</t>
-  </si>
-  <si>
-    <t>TH58_21T_P21R_3</t>
-  </si>
-  <si>
-    <t>TH58_22イT_P22イN_1</t>
-  </si>
-  <si>
-    <t>TH58_22イT_P22イN_2</t>
-  </si>
-  <si>
-    <t>TH58_22イT_P22イN_3</t>
-  </si>
-  <si>
-    <t>TH58_22イT_P22イR_1</t>
-  </si>
-  <si>
-    <t>TH58_22イT_P22イR_2</t>
-  </si>
-  <si>
-    <t>TH58_22ロT_P22ロN_1</t>
-  </si>
-  <si>
-    <t>TH58_22ロT_P22ロR_1</t>
-  </si>
-  <si>
-    <t>TH58_22ロT_P22ロR_2</t>
+    <t>TH58_21T_W21N_1</t>
+  </si>
+  <si>
+    <t>TH58_21T</t>
+  </si>
+  <si>
+    <t>TH58_21T_W21N_2</t>
+  </si>
+  <si>
+    <t>TH58_21T_W21R_1</t>
+  </si>
+  <si>
+    <t>TH58_21T_W21R_2</t>
+  </si>
+  <si>
+    <t>TH58_21T_W21R_3</t>
+  </si>
+  <si>
+    <t>TH58_22イT_W22イN_1</t>
+  </si>
+  <si>
+    <t>TH58_22イT</t>
+  </si>
+  <si>
+    <t>TH58_22イT_W22イN_2</t>
+  </si>
+  <si>
+    <t>TH58_22イT_W22イN_3</t>
+  </si>
+  <si>
+    <t>TH58_22イT_W22イR_1</t>
+  </si>
+  <si>
+    <t>TH58_22イT_W22イR_2</t>
+  </si>
+  <si>
+    <t>TH58_22ロT_W22ロN_1</t>
+  </si>
+  <si>
+    <t>TH58_22ロT</t>
+  </si>
+  <si>
+    <t>TH58_22ロT_W22ロR_1</t>
+  </si>
+  <si>
+    <t>TH58_22ロT_W22ロR_2</t>
   </si>
   <si>
     <t>TH58_2RAT_1</t>
   </si>
   <si>
+    <t>TH58_2RAT</t>
+  </si>
+  <si>
     <t>TH58_2RAT_2</t>
   </si>
   <si>
     <t>TH58_2RBT_1</t>
   </si>
   <si>
+    <t>TH58_2RBT</t>
+  </si>
+  <si>
     <t>TH58_2RBT_2</t>
   </si>
   <si>
     <t>TH58_9LCT_1</t>
   </si>
   <si>
+    <t>TH58_9LCT</t>
+  </si>
+  <si>
     <t>TH58_9LCT_2</t>
   </si>
   <si>
-    <t>TH58_23イT_P23イN_1</t>
-  </si>
-  <si>
-    <t>TH58_23イT_P23イN_2</t>
-  </si>
-  <si>
-    <t>TH58_23イT_P23イR_1</t>
-  </si>
-  <si>
-    <t>TH58_23イT_P23イR_2</t>
-  </si>
-  <si>
-    <t>TH58_23ロT_P23ロN_1</t>
-  </si>
-  <si>
-    <t>TH58_23ロT_P23ロN_2</t>
-  </si>
-  <si>
-    <t>TH58_23ロT_P23ロN_3</t>
-  </si>
-  <si>
-    <t>TH58_23ロT_P23ロR_1</t>
-  </si>
-  <si>
-    <t>TH58_23ロT_P23ロR_2</t>
-  </si>
-  <si>
-    <t>TH58_24T_P24N_1</t>
-  </si>
-  <si>
-    <t>TH58_24T_P24N_2</t>
-  </si>
-  <si>
-    <t>TH58_24T_P24R_1</t>
-  </si>
-  <si>
-    <t>TH58_24T_P24R_2</t>
-  </si>
-  <si>
-    <t>TH58_25T_P25N_1</t>
-  </si>
-  <si>
-    <t>TH58_25T_P25N_2</t>
-  </si>
-  <si>
-    <t>TH58_25T_P25R_1</t>
-  </si>
-  <si>
-    <t>TH58_25T_P25R_2</t>
-  </si>
-  <si>
-    <t>TH58_25T_P25R_3</t>
+    <t>TH58_23イT_W23イN_1</t>
+  </si>
+  <si>
+    <t>TH58_23イT</t>
+  </si>
+  <si>
+    <t>TH58_23イT_W23イN_2</t>
+  </si>
+  <si>
+    <t>TH58_23イT_W23イR_1</t>
+  </si>
+  <si>
+    <t>TH58_23イT_W23イR_2</t>
+  </si>
+  <si>
+    <t>TH58_23ロT_W23ロN_1</t>
+  </si>
+  <si>
+    <t>TH58_23ロT</t>
+  </si>
+  <si>
+    <t>TH58_23ロT_W23ロN_2</t>
+  </si>
+  <si>
+    <t>TH58_23ロT_W23ロN_3</t>
+  </si>
+  <si>
+    <t>TH58_23ロT_W23ロR_1</t>
+  </si>
+  <si>
+    <t>TH58_23ロT_W23ロR_2</t>
+  </si>
+  <si>
+    <t>TH58_24T_W24N_1</t>
+  </si>
+  <si>
+    <t>TH58_24T</t>
+  </si>
+  <si>
+    <t>TH58_24T_W24N_2</t>
+  </si>
+  <si>
+    <t>TH58_24T_W24R_1</t>
+  </si>
+  <si>
+    <t>TH58_24T_W24R_2</t>
+  </si>
+  <si>
+    <t>TH58_25T_W25N_1</t>
+  </si>
+  <si>
+    <t>TH58_25T</t>
+  </si>
+  <si>
+    <t>TH58_25T_W25N_2</t>
+  </si>
+  <si>
+    <t>TH58_25T_W25R_1</t>
+  </si>
+  <si>
+    <t>TH58_25T_W25R_2</t>
+  </si>
+  <si>
+    <t>TH58_25T_W25R_3</t>
   </si>
   <si>
     <t>TH58_DT_1</t>
   </si>
   <si>
+    <t>TH58_DT</t>
+  </si>
+  <si>
     <t>TH58_DT_2</t>
   </si>
   <si>
     <t>TH58_ET_1</t>
   </si>
   <si>
+    <t>TH58_ET</t>
+  </si>
+  <si>
     <t>TH58_ET_2</t>
   </si>
   <si>
     <t>TH58_9LT_1</t>
   </si>
   <si>
+    <t>TH58_9LT</t>
+  </si>
+  <si>
     <t>TH58_9LT_2</t>
   </si>
   <si>
     <t>AS1T_1</t>
   </si>
   <si>
+    <t>AS1T</t>
+  </si>
+  <si>
     <t>AS1T_2</t>
   </si>
   <si>
@@ -1239,6 +1425,9 @@
     <t>AS2T_1</t>
   </si>
   <si>
+    <t>AS2T</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
@@ -1302,16 +1491,10 @@
     <t>Button</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1842,9 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="25" width="15.140625" customWidth="1"/>
     <col min="26" max="26" width="37.5703125" customWidth="1"/>
     <col min="27" max="27" width="100.140625" customWidth="1"/>
     <col min="28" max="28" width="62.5703125" customWidth="1"/>
@@ -1974,8 +2159,12 @@
         <v>41</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2001,19 +2190,19 @@
         <v>41</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y6" s="8">
         <v>-1</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
@@ -2026,10 +2215,10 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>41</v>
@@ -2064,10 +2253,10 @@
         <v>10</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W7" s="4" t="s">
         <v>41</v>
@@ -2091,13 +2280,15 @@
         <v>40</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2120,22 +2311,22 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y8" s="8">
         <v>0</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
@@ -2151,14 +2342,14 @@
         <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2183,17 +2374,17 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y9" s="8">
         <v>0</v>
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
@@ -2206,13 +2397,13 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2244,13 +2435,13 @@
         <v>10</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -2271,13 +2462,15 @@
         <v>40</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2300,19 +2493,19 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X11" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Y11" s="8">
         <v>0</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -2329,14 +2522,14 @@
         <v>31</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2361,14 +2554,14 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y12" s="8">
         <v>0</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -2382,13 +2575,13 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2420,13 +2613,13 @@
         <v>10</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -2447,13 +2640,15 @@
         <v>40</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2476,19 +2671,19 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="X14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="AA14" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -2505,14 +2700,14 @@
         <v>31</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2537,14 +2732,14 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y15" s="8">
         <v>0</v>
       </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
@@ -2558,13 +2753,13 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2596,13 +2791,13 @@
         <v>10</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -2623,13 +2818,15 @@
         <v>40</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2652,19 +2849,19 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Y17" s="8">
         <v>0</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -2681,14 +2878,14 @@
         <v>31</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2713,14 +2910,14 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y18" s="8">
         <v>0</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -2734,13 +2931,13 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2772,13 +2969,13 @@
         <v>10</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -2799,13 +2996,15 @@
         <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2828,19 +3027,19 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y20" s="8">
         <v>0</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -2857,14 +3056,14 @@
         <v>31</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2889,14 +3088,14 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y21" s="8">
         <v>0</v>
       </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
@@ -2910,13 +3109,13 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2948,13 +3147,13 @@
         <v>10</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -2975,13 +3174,15 @@
         <v>40</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -3004,19 +3205,19 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y23" s="8">
         <v>0</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -3033,14 +3234,14 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -3065,14 +3266,14 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y24" s="8">
         <v>0</v>
       </c>
       <c r="Z24" s="9"/>
       <c r="AA24" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
@@ -3086,13 +3287,13 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3124,13 +3325,13 @@
         <v>10</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -3151,13 +3352,15 @@
         <v>40</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3180,19 +3383,19 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="X26" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y26" s="8">
         <v>0</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
@@ -3209,14 +3412,14 @@
         <v>31</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -3241,14 +3444,14 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y27" s="8">
         <v>0</v>
       </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
@@ -3262,13 +3465,13 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3300,13 +3503,13 @@
         <v>10</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
@@ -3327,13 +3530,15 @@
         <v>40</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3356,19 +3561,19 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Y29" s="8">
         <v>0</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
@@ -3385,14 +3590,14 @@
         <v>31</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -3417,14 +3622,14 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y30" s="8">
         <v>0</v>
       </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
@@ -3438,13 +3643,13 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3476,13 +3681,13 @@
         <v>10</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
@@ -3503,13 +3708,15 @@
         <v>40</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -3532,22 +3739,22 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y32" s="8">
         <v>-1</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
@@ -3560,13 +3767,13 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3598,13 +3805,13 @@
         <v>10</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W33" s="4" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
@@ -3625,13 +3832,15 @@
         <v>40</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3654,22 +3863,22 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="X34" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y34" s="8">
         <v>0</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -3685,14 +3894,14 @@
         <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -3717,14 +3926,14 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y35" s="8">
         <v>0</v>
       </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
@@ -3738,13 +3947,13 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3776,13 +3985,13 @@
         <v>10</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
@@ -3803,13 +4012,15 @@
         <v>40</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -3832,19 +4043,19 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Y37" s="8">
         <v>0</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
@@ -3861,14 +4072,14 @@
         <v>31</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -3893,14 +4104,14 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y38" s="8">
         <v>0</v>
       </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
@@ -3914,13 +4125,13 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3952,13 +4163,13 @@
         <v>10</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
@@ -3979,13 +4190,15 @@
         <v>40</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -4008,19 +4221,19 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="X40" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Y40" s="8">
         <v>0</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AA40" s="10" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
@@ -4037,14 +4250,14 @@
         <v>31</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -4069,14 +4282,14 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y41" s="8">
         <v>0</v>
       </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
@@ -4090,13 +4303,13 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -4128,13 +4341,13 @@
         <v>10</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
@@ -4152,16 +4365,18 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -4184,19 +4399,19 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="7" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y43" s="8">
         <v>0</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
@@ -4210,13 +4425,13 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4242,19 +4457,19 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="T44" s="4">
         <v>10</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W44" s="4" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
@@ -4272,16 +4487,18 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -4304,19 +4521,19 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="7" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="X45" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y45" s="8">
         <v>0</v>
       </c>
       <c r="Z45" s="9" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="AA45" s="10" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -4330,13 +4547,13 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -4362,19 +4579,19 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="T46" s="4">
         <v>10</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W46" s="4" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
@@ -4392,16 +4609,18 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -4424,19 +4643,19 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="7" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="X47" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y47" s="8">
         <v>0</v>
       </c>
       <c r="Z47" s="9" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="AA47" s="10" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
@@ -4450,13 +4669,13 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -4482,19 +4701,19 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="T48" s="4">
         <v>10</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
@@ -4512,16 +4731,18 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -4544,19 +4765,19 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="7" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="X49" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y49" s="8">
         <v>0</v>
       </c>
       <c r="Z49" s="9" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="AA49" s="10" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
@@ -4570,13 +4791,13 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4602,19 +4823,19 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="T50" s="4">
         <v>10</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
@@ -4632,16 +4853,18 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -4664,19 +4887,19 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="7" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="X51" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y51" s="8">
         <v>0</v>
       </c>
       <c r="Z51" s="9" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="AA51" s="10" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
@@ -4690,13 +4913,13 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4722,19 +4945,19 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="T52" s="4">
         <v>10</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W52" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
@@ -4752,16 +4975,18 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -4784,19 +5009,19 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="7" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="X53" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y53" s="8">
         <v>0</v>
       </c>
       <c r="Z53" s="9" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="AA53" s="10" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
@@ -4810,13 +5035,13 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4842,19 +5067,19 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="T54" s="4">
         <v>10</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
@@ -4872,16 +5097,18 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -4904,19 +5131,19 @@
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="7" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="X55" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y55" s="8">
         <v>0</v>
       </c>
       <c r="Z55" s="9" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="AA55" s="10" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
@@ -4930,13 +5157,13 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -4962,19 +5189,19 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="T56" s="4">
         <v>10</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
@@ -4992,10 +5219,10 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -5022,19 +5249,19 @@
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="X57" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y57" s="8">
         <v>0</v>
       </c>
       <c r="Z57" s="9" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="AA57" s="10" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -5048,10 +5275,10 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -5078,19 +5305,19 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="X58" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y58" s="8">
         <v>0</v>
       </c>
       <c r="Z58" s="9" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="AA58" s="10" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
@@ -5107,13 +5334,15 @@
         <v>40</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -5136,22 +5365,22 @@
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59" s="7" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="X59" s="8" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="Y59" s="8">
         <v>0</v>
       </c>
       <c r="Z59" s="9" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AA59" s="10" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="AB59" s="5" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
@@ -5167,15 +5396,18 @@
         <v>31</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="7"/>
@@ -5197,14 +5429,14 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y60" s="8">
         <v>0</v>
       </c>
       <c r="Z60" s="9"/>
       <c r="AA60" s="10" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
@@ -5221,15 +5453,18 @@
         <v>31</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="7"/>
@@ -5251,14 +5486,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y61" s="8">
         <v>0</v>
       </c>
       <c r="Z61" s="9"/>
       <c r="AA61" s="10" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -5272,13 +5507,13 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -5310,13 +5545,13 @@
         <v>10</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V62" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W62" s="4" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
@@ -5337,13 +5572,15 @@
         <v>40</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -5366,19 +5603,19 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="7" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="X63" s="8" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="Y63" s="8">
         <v>0</v>
       </c>
       <c r="Z63" s="9" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AA63" s="10" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
@@ -5395,15 +5632,18 @@
         <v>31</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="7"/>
@@ -5425,14 +5665,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y64" s="8">
         <v>0</v>
       </c>
       <c r="Z64" s="9"/>
       <c r="AA64" s="10" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
@@ -5449,15 +5689,18 @@
         <v>31</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="7"/>
@@ -5479,14 +5722,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y65" s="8">
         <v>0</v>
       </c>
       <c r="Z65" s="9"/>
       <c r="AA65" s="10" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
@@ -5500,16 +5743,15 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -5538,13 +5780,13 @@
         <v>10</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V66" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W66" s="4" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
@@ -5565,13 +5807,15 @@
         <v>40</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -5594,19 +5838,19 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="7" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="X67" s="8" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="Y67" s="8">
         <v>0</v>
       </c>
       <c r="Z67" s="9" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AA67" s="10" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
@@ -5623,15 +5867,18 @@
         <v>31</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="7"/>
@@ -5653,14 +5900,14 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y68" s="8">
         <v>0</v>
       </c>
       <c r="Z68" s="9"/>
       <c r="AA68" s="10" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
@@ -5677,15 +5924,18 @@
         <v>31</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="7"/>
@@ -5707,14 +5957,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y69" s="8">
         <v>0</v>
       </c>
       <c r="Z69" s="9"/>
       <c r="AA69" s="10" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
@@ -5728,16 +5978,15 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -5766,13 +6015,13 @@
         <v>10</v>
       </c>
       <c r="U70" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V70" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W70" s="4" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
@@ -5793,14 +6042,15 @@
         <v>40</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -5822,19 +6072,19 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="7" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="X71" s="8" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="Y71" s="8">
         <v>0</v>
       </c>
       <c r="Z71" s="9" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AA71" s="10" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
@@ -5851,15 +6101,18 @@
         <v>31</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="7"/>
@@ -5881,14 +6134,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y72" s="8">
         <v>0</v>
       </c>
       <c r="Z72" s="9"/>
       <c r="AA72" s="10" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
@@ -5905,15 +6158,18 @@
         <v>31</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="7"/>
@@ -5935,14 +6191,14 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y73" s="8">
         <v>0</v>
       </c>
       <c r="Z73" s="9"/>
       <c r="AA73" s="10" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
@@ -5956,17 +6212,16 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="F74" s="8"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -5994,13 +6249,13 @@
         <v>10</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W74" s="4" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
@@ -6021,14 +6276,15 @@
         <v>40</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -6050,19 +6306,19 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="7" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="X75" s="8" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="Y75" s="8">
         <v>0</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AA75" s="10" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
@@ -6079,15 +6335,18 @@
         <v>31</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="7"/>
@@ -6109,14 +6368,14 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y76" s="8">
         <v>0</v>
       </c>
       <c r="Z76" s="9"/>
       <c r="AA76" s="10" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
@@ -6133,15 +6392,18 @@
         <v>31</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="7"/>
@@ -6163,14 +6425,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y77" s="8">
         <v>0</v>
       </c>
       <c r="Z77" s="9"/>
       <c r="AA77" s="10" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
@@ -6184,13 +6446,13 @@
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -6222,13 +6484,13 @@
         <v>10</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V78" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W78" s="4" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
@@ -6246,18 +6508,16 @@
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -6280,22 +6540,22 @@
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="7" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="X79" s="8" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="Y79" s="8">
         <v>0</v>
       </c>
       <c r="Z79" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA79" s="10" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
@@ -6311,15 +6571,13 @@
         <v>31</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>159</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -6343,14 +6601,14 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y80" s="8">
         <v>0</v>
       </c>
       <c r="Z80" s="9"/>
       <c r="AA80" s="10" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
@@ -6364,18 +6622,16 @@
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>161</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -6398,22 +6654,22 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="7" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="X81" s="8" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="Y81" s="8">
         <v>1</v>
       </c>
       <c r="Z81" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA81" s="10" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="AB81" s="5" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
@@ -6429,15 +6685,13 @@
         <v>31</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>167</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -6461,14 +6715,14 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y82" s="8">
         <v>0</v>
       </c>
       <c r="Z82" s="9"/>
       <c r="AA82" s="10" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
@@ -6485,15 +6739,13 @@
         <v>31</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>169</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -6517,14 +6769,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y83" s="8">
         <v>0</v>
       </c>
       <c r="Z83" s="9"/>
       <c r="AA83" s="10" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
@@ -6538,18 +6790,16 @@
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>171</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -6572,22 +6822,22 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="7" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="X84" s="8" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="Y84" s="8">
         <v>0</v>
       </c>
       <c r="Z84" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA84" s="10" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="AB84" s="5" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
@@ -6603,15 +6853,13 @@
         <v>31</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -6635,14 +6883,14 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y85" s="8">
         <v>0</v>
       </c>
       <c r="Z85" s="9"/>
       <c r="AA85" s="10" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
@@ -6659,13 +6907,15 @@
         <v>31</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E86" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -6689,17 +6939,17 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y86" s="8">
         <v>0</v>
       </c>
       <c r="Z86" s="9"/>
       <c r="AA86" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB86" s="12" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
@@ -6715,13 +6965,15 @@
         <v>31</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E87" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -6745,14 +6997,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y87" s="8">
         <v>0</v>
       </c>
       <c r="Z87" s="9"/>
       <c r="AA87" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB87" s="12"/>
       <c r="AC87" s="5"/>
@@ -6769,15 +7021,21 @@
         <v>31</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="7"/>
@@ -6799,14 +7057,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y88" s="8">
         <v>0</v>
       </c>
       <c r="Z88" s="9"/>
       <c r="AA88" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB88" s="12"/>
       <c r="AC88" s="5"/>
@@ -6823,15 +7081,21 @@
         <v>31</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="7"/>
@@ -6853,14 +7117,14 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y89" s="8">
         <v>0</v>
       </c>
       <c r="Z89" s="9"/>
       <c r="AA89" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB89" s="12"/>
       <c r="AC89" s="5"/>
@@ -6877,15 +7141,21 @@
         <v>31</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="7"/>
@@ -6907,17 +7177,17 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y90" s="8">
         <v>0</v>
       </c>
       <c r="Z90" s="9"/>
       <c r="AA90" s="10" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="AB90" s="12" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
@@ -6933,15 +7203,21 @@
         <v>31</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="7"/>
@@ -6963,14 +7239,14 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y91" s="8">
         <v>0</v>
       </c>
       <c r="Z91" s="9"/>
       <c r="AA91" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB91" s="12"/>
       <c r="AC91" s="5"/>
@@ -6987,15 +7263,21 @@
         <v>31</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="7"/>
@@ -7017,14 +7299,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y92" s="8">
         <v>0</v>
       </c>
       <c r="Z92" s="9"/>
       <c r="AA92" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB92" s="12"/>
       <c r="AC92" s="5"/>
@@ -7041,15 +7323,21 @@
         <v>31</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="7"/>
@@ -7071,17 +7359,17 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y93" s="8">
         <v>0</v>
       </c>
       <c r="Z93" s="9"/>
       <c r="AA93" s="10" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="AB93" s="12" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
@@ -7097,15 +7385,21 @@
         <v>31</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="7"/>
@@ -7127,14 +7421,14 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y94" s="8">
         <v>0</v>
       </c>
       <c r="Z94" s="9"/>
       <c r="AA94" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB94" s="12"/>
       <c r="AC94" s="5"/>
@@ -7151,13 +7445,15 @@
         <v>31</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E95" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -7181,14 +7477,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y95" s="8">
         <v>0</v>
       </c>
       <c r="Z95" s="9"/>
       <c r="AA95" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB95" s="12"/>
       <c r="AC95" s="5"/>
@@ -7205,13 +7501,15 @@
         <v>31</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E96" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -7235,14 +7533,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y96" s="8">
         <v>0</v>
       </c>
       <c r="Z96" s="9"/>
       <c r="AA96" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB96" s="12"/>
       <c r="AC96" s="5"/>
@@ -7259,13 +7557,15 @@
         <v>31</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E97" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -7289,14 +7589,14 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y97" s="8">
         <v>0</v>
       </c>
       <c r="Z97" s="9"/>
       <c r="AA97" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB97" s="12"/>
       <c r="AC97" s="5"/>
@@ -7313,13 +7613,15 @@
         <v>31</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E98" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -7343,17 +7645,17 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y98" s="8">
         <v>0</v>
       </c>
       <c r="Z98" s="9"/>
       <c r="AA98" s="10" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="AB98" s="12" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
@@ -7369,13 +7671,15 @@
         <v>31</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E99" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -7399,17 +7703,17 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y99" s="8">
         <v>0</v>
       </c>
       <c r="Z99" s="9"/>
       <c r="AA99" s="10" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="AB99" s="12" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
@@ -7425,13 +7729,15 @@
         <v>31</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E100" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -7455,17 +7761,17 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y100" s="8">
         <v>0</v>
       </c>
       <c r="Z100" s="9"/>
       <c r="AA100" s="10" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="AB100" s="12" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
@@ -7481,13 +7787,15 @@
         <v>31</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E101" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -7511,17 +7819,17 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y101" s="8">
         <v>0</v>
       </c>
       <c r="Z101" s="9"/>
       <c r="AA101" s="10" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="AB101" s="12" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
@@ -7537,13 +7845,15 @@
         <v>31</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E102" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -7567,14 +7877,14 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y102" s="8">
         <v>0</v>
       </c>
       <c r="Z102" s="9"/>
       <c r="AA102" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB102" s="12"/>
       <c r="AC102" s="5"/>
@@ -7591,13 +7901,15 @@
         <v>31</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E103" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -7621,14 +7933,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y103" s="8">
         <v>0</v>
       </c>
       <c r="Z103" s="9"/>
       <c r="AA103" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB103" s="12"/>
       <c r="AC103" s="5"/>
@@ -7645,15 +7957,21 @@
         <v>31</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="7"/>
@@ -7675,14 +7993,14 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y104" s="8">
         <v>0</v>
       </c>
       <c r="Z104" s="9"/>
       <c r="AA104" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB104" s="12"/>
       <c r="AC104" s="5"/>
@@ -7699,15 +8017,21 @@
         <v>31</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="7"/>
@@ -7729,14 +8053,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y105" s="8">
         <v>0</v>
       </c>
       <c r="Z105" s="9"/>
       <c r="AA105" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB105" s="12"/>
       <c r="AC105" s="5"/>
@@ -7753,15 +8077,21 @@
         <v>31</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="7"/>
@@ -7783,14 +8113,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y106" s="8">
         <v>0</v>
       </c>
       <c r="Z106" s="9"/>
       <c r="AA106" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB106" s="12"/>
       <c r="AC106" s="5"/>
@@ -7807,15 +8137,21 @@
         <v>31</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="7"/>
@@ -7837,17 +8173,17 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y107" s="8">
         <v>0</v>
       </c>
       <c r="Z107" s="9"/>
       <c r="AA107" s="10" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="AB107" s="12" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
@@ -7863,15 +8199,21 @@
         <v>31</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="7"/>
@@ -7893,14 +8235,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y108" s="8">
         <v>0</v>
       </c>
       <c r="Z108" s="9"/>
       <c r="AA108" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB108" s="12"/>
       <c r="AC108" s="5"/>
@@ -7917,15 +8259,21 @@
         <v>31</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="7"/>
@@ -7947,14 +8295,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y109" s="8">
         <v>0</v>
       </c>
       <c r="Z109" s="9"/>
       <c r="AA109" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB109" s="12"/>
       <c r="AC109" s="5"/>
@@ -7971,15 +8319,21 @@
         <v>31</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="7"/>
@@ -8001,14 +8355,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y110" s="8">
         <v>0</v>
       </c>
       <c r="Z110" s="9"/>
       <c r="AA110" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB110" s="12"/>
       <c r="AC110" s="5"/>
@@ -8025,15 +8379,21 @@
         <v>31</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="7"/>
@@ -8055,14 +8415,14 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y111" s="8">
         <v>0</v>
       </c>
       <c r="Z111" s="9"/>
       <c r="AA111" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB111" s="12"/>
       <c r="AC111" s="5"/>
@@ -8079,15 +8439,21 @@
         <v>31</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="7"/>
@@ -8109,14 +8475,14 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y112" s="8">
         <v>0</v>
       </c>
       <c r="Z112" s="9"/>
       <c r="AA112" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB112" s="12"/>
       <c r="AC112" s="5"/>
@@ -8133,15 +8499,21 @@
         <v>31</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="7"/>
@@ -8163,17 +8535,17 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y113" s="8">
         <v>0</v>
       </c>
       <c r="Z113" s="9"/>
       <c r="AA113" s="10" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="AB113" s="12" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
@@ -8189,15 +8561,21 @@
         <v>31</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="7"/>
@@ -8219,14 +8597,14 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y114" s="8">
         <v>0</v>
       </c>
       <c r="Z114" s="9"/>
       <c r="AA114" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB114" s="12"/>
       <c r="AC114" s="5"/>
@@ -8243,15 +8621,21 @@
         <v>31</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="7"/>
@@ -8273,17 +8657,17 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y115" s="8">
         <v>0</v>
       </c>
       <c r="Z115" s="9"/>
       <c r="AA115" s="10" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="AB115" s="12" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
@@ -8299,15 +8683,21 @@
         <v>31</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="7"/>
@@ -8329,14 +8719,14 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y116" s="8">
         <v>0</v>
       </c>
       <c r="Z116" s="9"/>
       <c r="AA116" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB116" s="12"/>
       <c r="AC116" s="5"/>
@@ -8353,13 +8743,15 @@
         <v>31</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E117" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -8383,14 +8775,14 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y117" s="8">
         <v>0</v>
       </c>
       <c r="Z117" s="9"/>
       <c r="AA117" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB117" s="12"/>
       <c r="AC117" s="5"/>
@@ -8407,13 +8799,15 @@
         <v>31</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E118" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -8437,14 +8831,14 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y118" s="8">
         <v>0</v>
       </c>
       <c r="Z118" s="9"/>
       <c r="AA118" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB118" s="12"/>
       <c r="AC118" s="5"/>
@@ -8461,13 +8855,15 @@
         <v>31</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E119" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -8491,14 +8887,14 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y119" s="8">
         <v>0</v>
       </c>
       <c r="Z119" s="9"/>
       <c r="AA119" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB119" s="12"/>
       <c r="AC119" s="5"/>
@@ -8515,13 +8911,15 @@
         <v>31</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E120" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -8545,14 +8943,14 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y120" s="8">
         <v>0</v>
       </c>
       <c r="Z120" s="9"/>
       <c r="AA120" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB120" s="12"/>
       <c r="AC120" s="5"/>
@@ -8569,13 +8967,15 @@
         <v>31</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E121" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -8599,14 +8999,14 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y121" s="8">
         <v>0</v>
       </c>
       <c r="Z121" s="9"/>
       <c r="AA121" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB121" s="12"/>
       <c r="AC121" s="5"/>
@@ -8623,13 +9023,15 @@
         <v>31</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E122" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -8653,14 +9055,14 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y122" s="8">
         <v>0</v>
       </c>
       <c r="Z122" s="9"/>
       <c r="AA122" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB122" s="12"/>
       <c r="AC122" s="5"/>
@@ -8677,15 +9079,21 @@
         <v>31</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="7"/>
@@ -8707,14 +9115,14 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y123" s="8">
         <v>0</v>
       </c>
       <c r="Z123" s="9"/>
       <c r="AA123" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB123" s="12"/>
       <c r="AC123" s="5"/>
@@ -8731,15 +9139,21 @@
         <v>31</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="7"/>
@@ -8761,14 +9175,14 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y124" s="8">
         <v>0</v>
       </c>
       <c r="Z124" s="9"/>
       <c r="AA124" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB124" s="12"/>
       <c r="AC124" s="5"/>
@@ -8785,15 +9199,21 @@
         <v>31</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="7"/>
@@ -8815,14 +9235,14 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y125" s="8">
         <v>0</v>
       </c>
       <c r="Z125" s="9"/>
       <c r="AA125" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB125" s="12"/>
       <c r="AC125" s="5"/>
@@ -8839,15 +9259,21 @@
         <v>31</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="7"/>
@@ -8869,17 +9295,17 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y126" s="8">
         <v>0</v>
       </c>
       <c r="Z126" s="9"/>
       <c r="AA126" s="10" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="AB126" s="12" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AC126" s="5"/>
       <c r="AD126" s="5"/>
@@ -8895,15 +9321,21 @@
         <v>31</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="7"/>
@@ -8925,14 +9357,14 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y127" s="8">
         <v>0</v>
       </c>
       <c r="Z127" s="9"/>
       <c r="AA127" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB127" s="12"/>
       <c r="AC127" s="5"/>
@@ -8949,15 +9381,21 @@
         <v>31</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="7"/>
@@ -8979,14 +9417,14 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y128" s="8">
         <v>0</v>
       </c>
       <c r="Z128" s="9"/>
       <c r="AA128" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB128" s="12"/>
       <c r="AC128" s="5"/>
@@ -9003,15 +9441,21 @@
         <v>31</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="7"/>
@@ -9033,14 +9477,14 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y129" s="8">
         <v>0</v>
       </c>
       <c r="Z129" s="9"/>
       <c r="AA129" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB129" s="12"/>
       <c r="AC129" s="5"/>
@@ -9057,15 +9501,21 @@
         <v>31</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="7"/>
@@ -9087,17 +9537,17 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y130" s="8">
         <v>0</v>
       </c>
       <c r="Z130" s="9"/>
       <c r="AA130" s="10" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="AB130" s="12" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AC130" s="5"/>
       <c r="AD130" s="5"/>
@@ -9113,15 +9563,21 @@
         <v>31</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="7"/>
@@ -9143,14 +9599,14 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y131" s="8">
         <v>0</v>
       </c>
       <c r="Z131" s="9"/>
       <c r="AA131" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB131" s="12"/>
       <c r="AC131" s="5"/>
@@ -9167,15 +9623,21 @@
         <v>31</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="7"/>
@@ -9197,14 +9659,14 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y132" s="8">
         <v>0</v>
       </c>
       <c r="Z132" s="9"/>
       <c r="AA132" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB132" s="12"/>
       <c r="AC132" s="5"/>
@@ -9221,15 +9683,21 @@
         <v>31</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="7"/>
@@ -9251,14 +9719,14 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y133" s="8">
         <v>0</v>
       </c>
       <c r="Z133" s="9"/>
       <c r="AA133" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB133" s="12"/>
       <c r="AC133" s="5"/>
@@ -9275,15 +9743,21 @@
         <v>31</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="7"/>
@@ -9305,14 +9779,14 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y134" s="8">
         <v>0</v>
       </c>
       <c r="Z134" s="9"/>
       <c r="AA134" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB134" s="12"/>
       <c r="AC134" s="5"/>
@@ -9329,15 +9803,21 @@
         <v>31</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="7"/>
@@ -9359,17 +9839,17 @@
       <c r="V135" s="6"/>
       <c r="W135" s="6"/>
       <c r="X135" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y135" s="8">
         <v>0</v>
       </c>
       <c r="Z135" s="9"/>
       <c r="AA135" s="10" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="AB135" s="12" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="AC135" s="6"/>
       <c r="AD135" s="6"/>
@@ -9385,15 +9865,21 @@
         <v>31</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
       <c r="J136" s="7"/>
@@ -9415,14 +9901,14 @@
       <c r="V136" s="6"/>
       <c r="W136" s="6"/>
       <c r="X136" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y136" s="8">
         <v>0</v>
       </c>
       <c r="Z136" s="9"/>
       <c r="AA136" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB136" s="12"/>
       <c r="AC136" s="6"/>
@@ -9439,15 +9925,21 @@
         <v>31</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="7"/>
@@ -9469,14 +9961,14 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y137" s="8">
         <v>0</v>
       </c>
       <c r="Z137" s="9"/>
       <c r="AA137" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB137" s="12"/>
       <c r="AC137" s="5"/>
@@ -9493,15 +9985,21 @@
         <v>31</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="7"/>
@@ -9523,14 +10021,14 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y138" s="8">
         <v>0</v>
       </c>
       <c r="Z138" s="9"/>
       <c r="AA138" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB138" s="12"/>
       <c r="AC138" s="5"/>
@@ -9547,15 +10045,21 @@
         <v>31</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="7"/>
@@ -9577,17 +10081,17 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y139" s="8">
         <v>0</v>
       </c>
       <c r="Z139" s="9"/>
       <c r="AA139" s="10" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="AB139" s="12" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="AC139" s="5"/>
       <c r="AD139" s="5"/>
@@ -9603,15 +10107,21 @@
         <v>31</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="7"/>
@@ -9633,14 +10143,14 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y140" s="8">
         <v>0</v>
       </c>
       <c r="Z140" s="9"/>
       <c r="AA140" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB140" s="12"/>
       <c r="AC140" s="5"/>
@@ -9657,13 +10167,15 @@
         <v>31</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E141" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -9687,14 +10199,14 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y141" s="8">
         <v>0</v>
       </c>
       <c r="Z141" s="9"/>
       <c r="AA141" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB141" s="12"/>
       <c r="AC141" s="5"/>
@@ -9711,13 +10223,15 @@
         <v>31</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E142" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
@@ -9741,14 +10255,14 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y142" s="8">
         <v>0</v>
       </c>
       <c r="Z142" s="9"/>
       <c r="AA142" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB142" s="12"/>
       <c r="AC142" s="5"/>
@@ -9765,13 +10279,15 @@
         <v>31</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E143" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -9795,14 +10311,14 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
       <c r="X143" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y143" s="8">
         <v>0</v>
       </c>
       <c r="Z143" s="9"/>
       <c r="AA143" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB143" s="12"/>
       <c r="AC143" s="5"/>
@@ -9819,13 +10335,15 @@
         <v>31</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E144" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
@@ -9849,14 +10367,14 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y144" s="8">
         <v>0</v>
       </c>
       <c r="Z144" s="9"/>
       <c r="AA144" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB144" s="12"/>
       <c r="AC144" s="5"/>
@@ -9873,13 +10391,15 @@
         <v>31</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E145" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
@@ -9903,14 +10423,14 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
       <c r="X145" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y145" s="8">
         <v>0</v>
       </c>
       <c r="Z145" s="9"/>
       <c r="AA145" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB145" s="12"/>
       <c r="AC145" s="5"/>
@@ -9927,13 +10447,15 @@
         <v>31</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E146" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
@@ -9957,14 +10479,14 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
       <c r="X146" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y146" s="8">
         <v>0</v>
       </c>
       <c r="Z146" s="9"/>
       <c r="AA146" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB146" s="12"/>
       <c r="AC146" s="5"/>
@@ -9981,13 +10503,15 @@
         <v>31</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E147" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
@@ -10011,14 +10535,14 @@
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
       <c r="X147" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y147" s="8">
         <v>0</v>
       </c>
       <c r="Z147" s="9"/>
       <c r="AA147" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB147" s="12"/>
       <c r="AC147" s="5"/>
@@ -10035,13 +10559,15 @@
         <v>31</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E148" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -10065,14 +10591,14 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
       <c r="X148" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y148" s="8">
         <v>0</v>
       </c>
       <c r="Z148" s="9"/>
       <c r="AA148" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB148" s="12"/>
       <c r="AC148" s="5"/>
@@ -10089,13 +10615,15 @@
         <v>31</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E149" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -10119,17 +10647,17 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
       <c r="X149" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y149" s="8">
         <v>0</v>
       </c>
       <c r="Z149" s="9"/>
       <c r="AA149" s="10" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="AB149" s="12" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="AC149" s="5"/>
       <c r="AD149" s="5"/>
@@ -10145,13 +10673,15 @@
         <v>31</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E150" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -10175,17 +10705,17 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
       <c r="X150" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y150" s="8">
         <v>0</v>
       </c>
       <c r="Z150" s="9"/>
       <c r="AA150" s="10" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="AB150" s="12" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AC150" s="5"/>
       <c r="AD150" s="5"/>
@@ -10201,13 +10731,15 @@
         <v>31</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E151" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -10231,17 +10763,17 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
       <c r="X151" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y151" s="8">
         <v>0</v>
       </c>
       <c r="Z151" s="9"/>
       <c r="AA151" s="10" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="AB151" s="12" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AC151" s="5"/>
       <c r="AD151" s="5"/>
@@ -10257,13 +10789,15 @@
         <v>31</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E152" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -10287,17 +10821,17 @@
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
       <c r="X152" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y152" s="8">
         <v>0</v>
       </c>
       <c r="Z152" s="9"/>
       <c r="AA152" s="10" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="AB152" s="12" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="AC152" s="5"/>
       <c r="AD152" s="5"/>
@@ -10313,13 +10847,15 @@
         <v>31</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E153" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -10343,14 +10879,14 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
       <c r="X153" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y153" s="8">
         <v>0</v>
       </c>
       <c r="Z153" s="9"/>
       <c r="AA153" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
@@ -10367,11 +10903,11 @@
         <v>31</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -10397,14 +10933,14 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
       <c r="X154" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y154" s="8">
         <v>0</v>
       </c>
       <c r="Z154" s="9"/>
       <c r="AA154" s="10" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
@@ -10421,11 +10957,11 @@
         <v>31</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -10451,14 +10987,14 @@
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
       <c r="X155" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y155" s="8">
         <v>0</v>
       </c>
       <c r="Z155" s="9"/>
       <c r="AA155" s="10" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
@@ -10475,11 +11011,11 @@
         <v>31</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -10505,14 +11041,14 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
       <c r="X156" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y156" s="8">
         <v>0</v>
       </c>
       <c r="Z156" s="9"/>
       <c r="AA156" s="10" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
@@ -10529,11 +11065,11 @@
         <v>31</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -10559,14 +11095,14 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
       <c r="X157" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y157" s="8">
         <v>0</v>
       </c>
       <c r="Z157" s="9"/>
       <c r="AA157" s="10" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
@@ -10580,14 +11116,14 @@
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="11" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -10616,7 +11152,7 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
       <c r="AA158" s="10" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
@@ -10630,14 +11166,14 @@
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>263</v>
+        <v>326</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="11" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -10666,7 +11202,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
       <c r="AA159" s="10" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
@@ -10680,14 +11216,14 @@
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="11" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -10716,7 +11252,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
       <c r="AA160" s="10" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
@@ -10730,14 +11266,14 @@
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="11" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -10766,7 +11302,7 @@
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
       <c r="AA161" s="10" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="AB161" s="5"/>
       <c r="AC161" s="5"/>
@@ -10780,14 +11316,14 @@
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="11" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -10816,7 +11352,7 @@
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
       <c r="AA162" s="10" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="AB162" s="5"/>
       <c r="AC162" s="5"/>
@@ -10830,14 +11366,14 @@
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="11" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -10866,7 +11402,7 @@
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
       <c r="AA163" s="10" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="AB163" s="5"/>
       <c r="AC163" s="5"/>
@@ -10880,14 +11416,14 @@
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="11" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -10916,7 +11452,7 @@
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
       <c r="AA164" s="10" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="AB164" s="5"/>
       <c r="AC164" s="5"/>
@@ -10930,14 +11466,14 @@
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="11" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -10966,7 +11502,7 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
       <c r="AA165" s="10" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="AB165" s="5"/>
       <c r="AC165" s="5"/>
@@ -10980,14 +11516,14 @@
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="11" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
@@ -11016,7 +11552,7 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
       <c r="AA166" s="10" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="AB166" s="5"/>
       <c r="AC166" s="5"/>
@@ -11030,14 +11566,14 @@
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="11" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -11066,7 +11602,7 @@
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
       <c r="AA167" s="10" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="AB167" s="5"/>
       <c r="AC167" s="5"/>
@@ -11080,14 +11616,14 @@
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="11" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -11116,7 +11652,7 @@
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
       <c r="AA168" s="5" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
@@ -11248,35 +11784,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>274</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>277</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -11309,21 +11845,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
+++ b/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10D11F3-BA9D-434F-98D2-FC78B0B5FBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37FEA13-ACEF-4620-8982-37AA1F1FC96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="3690" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="4515" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH58_赤山町駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="356">
   <si>
     <t>Type</t>
   </si>
@@ -1083,6 +1083,9 @@
     <t>物理鍵てこ</t>
   </si>
   <si>
+    <t>TH58_98</t>
+  </si>
+  <si>
     <t>0,1,10,11</t>
   </si>
   <si>
@@ -1101,6 +1104,9 @@
     <t>駅扱切換</t>
   </si>
   <si>
+    <t>TH58_81</t>
+  </si>
+  <si>
     <t>-1,1,-11,11</t>
   </si>
   <si>
@@ -1122,6 +1128,9 @@
     <t>解放99</t>
   </si>
   <si>
+    <t>TH58_99</t>
+  </si>
+  <si>
     <t>解放99_PY</t>
   </si>
   <si>
@@ -1203,6 +1212,9 @@
     <t>NA2T_1L_1</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Image/Light/45N.png,Image/Light/45Y.png,Image/Light/45R.png</t>
   </si>
   <si>
@@ -1434,18 +1446,30 @@
     <t>状態表示灯</t>
   </si>
   <si>
+    <t>TH58_PWR-FAILURE</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>
   </si>
   <si>
     <t>CTC故障_R</t>
   </si>
   <si>
+    <t>TH58_CTC-FAILURE</t>
+  </si>
+  <si>
     <t>鎖錠60秒_R</t>
   </si>
   <si>
+    <t>TH58_60TEK</t>
+  </si>
+  <si>
     <t>鎖錠30秒_R</t>
   </si>
   <si>
+    <t>TH58_30TEK</t>
+  </si>
+  <si>
     <t>Retsuban</t>
   </si>
   <si>
@@ -1455,43 +1479,70 @@
     <t>列車番号</t>
   </si>
   <si>
+    <t>TH59_TTC_Track1</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
     <t>列番赤山町上り第2接近</t>
   </si>
   <si>
+    <t>TH58_TTC_Up2</t>
+  </si>
+  <si>
     <t>列番赤山町上り第1接近</t>
   </si>
   <si>
+    <t>TH58_TTC_Up1</t>
+  </si>
+  <si>
     <t>列番赤山町1番線</t>
   </si>
   <si>
+    <t>TH58_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番赤山町2番線</t>
   </si>
   <si>
+    <t>TH58_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番赤山町3番線</t>
   </si>
   <si>
+    <t>TH58_TTC_Track3</t>
+  </si>
+  <si>
     <t>列番赤山町4番線</t>
   </si>
   <si>
+    <t>TH58_TTC_Track4</t>
+  </si>
+  <si>
     <t>列番赤山町5番線</t>
   </si>
   <si>
+    <t>TH58_TTC_Track5</t>
+  </si>
+  <si>
     <t>列番赤山町下り第1接近</t>
   </si>
   <si>
+    <t>TH58_TTC_Down1</t>
+  </si>
+  <si>
     <t>列番赤山町下り第2接近</t>
   </si>
   <si>
+    <t>TH58_TTC_Down2</t>
+  </si>
+  <si>
     <t>列番三郷2番線</t>
   </si>
   <si>
     <t>Button</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>Label</t>
@@ -1569,7 +1620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1609,6 +1660,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6517,7 +6571,9 @@
       <c r="D79" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -6543,7 +6599,7 @@
         <v>199</v>
       </c>
       <c r="X79" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y79" s="8">
         <v>0</v>
@@ -6552,10 +6608,10 @@
         <v>55</v>
       </c>
       <c r="AA79" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
@@ -6571,13 +6627,15 @@
         <v>31</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E80" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -6625,13 +6683,15 @@
         <v>198</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E81" s="4"/>
+      <c r="E81" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -6654,10 +6714,10 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X81" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y81" s="8">
         <v>1</v>
@@ -6666,10 +6726,10 @@
         <v>45</v>
       </c>
       <c r="AA81" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AB81" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
@@ -6685,13 +6745,15 @@
         <v>31</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E82" s="4"/>
+        <v>213</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -6739,13 +6801,15 @@
         <v>31</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E83" s="4"/>
+        <v>213</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -6793,13 +6857,15 @@
         <v>198</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -6822,10 +6888,10 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="X84" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y84" s="8">
         <v>0</v>
@@ -6834,10 +6900,10 @@
         <v>55</v>
       </c>
       <c r="AA84" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB84" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
@@ -6853,13 +6919,15 @@
         <v>31</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E85" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -6907,14 +6975,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -6939,17 +7007,17 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y86" s="8">
         <v>0</v>
       </c>
       <c r="Z86" s="9"/>
       <c r="AA86" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB86" s="12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
@@ -6965,14 +7033,14 @@
         <v>31</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -6997,14 +7065,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y87" s="8">
         <v>0</v>
       </c>
       <c r="Z87" s="9"/>
       <c r="AA87" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB87" s="12"/>
       <c r="AC87" s="5"/>
@@ -7021,17 +7089,17 @@
         <v>31</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>164</v>
@@ -7057,14 +7125,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y88" s="8">
         <v>0</v>
       </c>
       <c r="Z88" s="9"/>
       <c r="AA88" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB88" s="12"/>
       <c r="AC88" s="5"/>
@@ -7081,17 +7149,17 @@
         <v>31</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>167</v>
@@ -7117,14 +7185,14 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y89" s="8">
         <v>0</v>
       </c>
       <c r="Z89" s="9"/>
       <c r="AA89" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB89" s="12"/>
       <c r="AC89" s="5"/>
@@ -7141,17 +7209,17 @@
         <v>31</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>167</v>
@@ -7177,17 +7245,17 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y90" s="8">
         <v>0</v>
       </c>
       <c r="Z90" s="9"/>
       <c r="AA90" s="10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AB90" s="12" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
@@ -7203,17 +7271,17 @@
         <v>31</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>164</v>
@@ -7239,14 +7307,14 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y91" s="8">
         <v>0</v>
       </c>
       <c r="Z91" s="9"/>
       <c r="AA91" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB91" s="12"/>
       <c r="AC91" s="5"/>
@@ -7263,17 +7331,17 @@
         <v>31</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>164</v>
@@ -7299,14 +7367,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y92" s="8">
         <v>0</v>
       </c>
       <c r="Z92" s="9"/>
       <c r="AA92" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB92" s="12"/>
       <c r="AC92" s="5"/>
@@ -7323,17 +7391,17 @@
         <v>31</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>167</v>
@@ -7359,17 +7427,17 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y93" s="8">
         <v>0</v>
       </c>
       <c r="Z93" s="9"/>
       <c r="AA93" s="10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AB93" s="12" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
@@ -7385,17 +7453,17 @@
         <v>31</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>167</v>
@@ -7421,14 +7489,14 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y94" s="8">
         <v>0</v>
       </c>
       <c r="Z94" s="9"/>
       <c r="AA94" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB94" s="12"/>
       <c r="AC94" s="5"/>
@@ -7445,14 +7513,14 @@
         <v>31</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -7477,14 +7545,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y95" s="8">
         <v>0</v>
       </c>
       <c r="Z95" s="9"/>
       <c r="AA95" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB95" s="12"/>
       <c r="AC95" s="5"/>
@@ -7501,21 +7569,25 @@
         <v>31</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
+      <c r="J96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="L96" s="7">
         <v>273</v>
       </c>
@@ -7533,14 +7605,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y96" s="8">
         <v>0</v>
       </c>
       <c r="Z96" s="9"/>
       <c r="AA96" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB96" s="12"/>
       <c r="AC96" s="5"/>
@@ -7557,21 +7629,25 @@
         <v>31</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
+      <c r="J97" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="L97" s="7">
         <v>333</v>
       </c>
@@ -7589,14 +7665,14 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y97" s="8">
         <v>0</v>
       </c>
       <c r="Z97" s="9"/>
       <c r="AA97" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB97" s="12"/>
       <c r="AC97" s="5"/>
@@ -7613,21 +7689,25 @@
         <v>31</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
+      <c r="J98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="L98" s="7">
         <v>274</v>
       </c>
@@ -7645,17 +7725,17 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y98" s="8">
         <v>0</v>
       </c>
       <c r="Z98" s="9"/>
       <c r="AA98" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AB98" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
@@ -7671,21 +7751,25 @@
         <v>31</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
+      <c r="J99" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="L99" s="7">
         <v>274</v>
       </c>
@@ -7703,17 +7787,17 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y99" s="8">
         <v>0</v>
       </c>
       <c r="Z99" s="9"/>
       <c r="AA99" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AB99" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
@@ -7729,21 +7813,25 @@
         <v>31</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
+      <c r="J100" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="L100" s="7">
         <v>334</v>
       </c>
@@ -7761,17 +7849,17 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y100" s="8">
         <v>0</v>
       </c>
       <c r="Z100" s="9"/>
       <c r="AA100" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AB100" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
@@ -7787,21 +7875,25 @@
         <v>31</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
+      <c r="J101" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="L101" s="7">
         <v>334</v>
       </c>
@@ -7819,17 +7911,17 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y101" s="8">
         <v>0</v>
       </c>
       <c r="Z101" s="9"/>
       <c r="AA101" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AB101" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
@@ -7845,14 +7937,14 @@
         <v>31</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -7877,14 +7969,14 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y102" s="8">
         <v>0</v>
       </c>
       <c r="Z102" s="9"/>
       <c r="AA102" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB102" s="12"/>
       <c r="AC102" s="5"/>
@@ -7901,14 +7993,14 @@
         <v>31</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -7933,14 +8025,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y103" s="8">
         <v>0</v>
       </c>
       <c r="Z103" s="9"/>
       <c r="AA103" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB103" s="12"/>
       <c r="AC103" s="5"/>
@@ -7957,14 +8049,14 @@
         <v>31</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>163</v>
@@ -7993,14 +8085,14 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y104" s="8">
         <v>0</v>
       </c>
       <c r="Z104" s="9"/>
       <c r="AA104" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB104" s="12"/>
       <c r="AC104" s="5"/>
@@ -8017,14 +8109,14 @@
         <v>31</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>163</v>
@@ -8053,14 +8145,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y105" s="8">
         <v>0</v>
       </c>
       <c r="Z105" s="9"/>
       <c r="AA105" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB105" s="12"/>
       <c r="AC105" s="5"/>
@@ -8077,14 +8169,14 @@
         <v>31</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>163</v>
@@ -8113,14 +8205,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y106" s="8">
         <v>0</v>
       </c>
       <c r="Z106" s="9"/>
       <c r="AA106" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB106" s="12"/>
       <c r="AC106" s="5"/>
@@ -8137,14 +8229,14 @@
         <v>31</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>163</v>
@@ -8173,17 +8265,17 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y107" s="8">
         <v>0</v>
       </c>
       <c r="Z107" s="9"/>
       <c r="AA107" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AB107" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
@@ -8199,14 +8291,14 @@
         <v>31</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>163</v>
@@ -8235,14 +8327,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y108" s="8">
         <v>0</v>
       </c>
       <c r="Z108" s="9"/>
       <c r="AA108" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB108" s="12"/>
       <c r="AC108" s="5"/>
@@ -8259,14 +8351,14 @@
         <v>31</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>174</v>
@@ -8295,14 +8387,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y109" s="8">
         <v>0</v>
       </c>
       <c r="Z109" s="9"/>
       <c r="AA109" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB109" s="12"/>
       <c r="AC109" s="5"/>
@@ -8319,14 +8411,14 @@
         <v>31</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>174</v>
@@ -8355,14 +8447,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y110" s="8">
         <v>0</v>
       </c>
       <c r="Z110" s="9"/>
       <c r="AA110" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB110" s="12"/>
       <c r="AC110" s="5"/>
@@ -8379,14 +8471,14 @@
         <v>31</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>174</v>
@@ -8415,14 +8507,14 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y111" s="8">
         <v>0</v>
       </c>
       <c r="Z111" s="9"/>
       <c r="AA111" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB111" s="12"/>
       <c r="AC111" s="5"/>
@@ -8439,14 +8531,14 @@
         <v>31</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>174</v>
@@ -8475,14 +8567,14 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y112" s="8">
         <v>0</v>
       </c>
       <c r="Z112" s="9"/>
       <c r="AA112" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB112" s="12"/>
       <c r="AC112" s="5"/>
@@ -8499,14 +8591,14 @@
         <v>31</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>174</v>
@@ -8535,17 +8627,17 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y113" s="8">
         <v>0</v>
       </c>
       <c r="Z113" s="9"/>
       <c r="AA113" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AB113" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
@@ -8561,14 +8653,14 @@
         <v>31</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>174</v>
@@ -8597,14 +8689,14 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y114" s="8">
         <v>0</v>
       </c>
       <c r="Z114" s="9"/>
       <c r="AA114" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB114" s="12"/>
       <c r="AC114" s="5"/>
@@ -8621,14 +8713,14 @@
         <v>31</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>174</v>
@@ -8657,17 +8749,17 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y115" s="8">
         <v>0</v>
       </c>
       <c r="Z115" s="9"/>
       <c r="AA115" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AB115" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
@@ -8683,14 +8775,14 @@
         <v>31</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>174</v>
@@ -8719,14 +8811,14 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y116" s="8">
         <v>0</v>
       </c>
       <c r="Z116" s="9"/>
       <c r="AA116" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB116" s="12"/>
       <c r="AC116" s="5"/>
@@ -8743,14 +8835,14 @@
         <v>31</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -8775,14 +8867,14 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y117" s="8">
         <v>0</v>
       </c>
       <c r="Z117" s="9"/>
       <c r="AA117" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB117" s="12"/>
       <c r="AC117" s="5"/>
@@ -8799,14 +8891,14 @@
         <v>31</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -8831,14 +8923,14 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y118" s="8">
         <v>0</v>
       </c>
       <c r="Z118" s="9"/>
       <c r="AA118" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB118" s="12"/>
       <c r="AC118" s="5"/>
@@ -8855,14 +8947,14 @@
         <v>31</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -8887,14 +8979,14 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y119" s="8">
         <v>0</v>
       </c>
       <c r="Z119" s="9"/>
       <c r="AA119" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB119" s="12"/>
       <c r="AC119" s="5"/>
@@ -8911,14 +9003,14 @@
         <v>31</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -8943,14 +9035,14 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y120" s="8">
         <v>0</v>
       </c>
       <c r="Z120" s="9"/>
       <c r="AA120" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB120" s="12"/>
       <c r="AC120" s="5"/>
@@ -8967,14 +9059,14 @@
         <v>31</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -8999,14 +9091,14 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y121" s="8">
         <v>0</v>
       </c>
       <c r="Z121" s="9"/>
       <c r="AA121" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB121" s="12"/>
       <c r="AC121" s="5"/>
@@ -9023,14 +9115,14 @@
         <v>31</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -9055,14 +9147,14 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y122" s="8">
         <v>0</v>
       </c>
       <c r="Z122" s="9"/>
       <c r="AA122" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB122" s="12"/>
       <c r="AC122" s="5"/>
@@ -9079,14 +9171,14 @@
         <v>31</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>181</v>
@@ -9115,14 +9207,14 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y123" s="8">
         <v>0</v>
       </c>
       <c r="Z123" s="9"/>
       <c r="AA123" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB123" s="12"/>
       <c r="AC123" s="5"/>
@@ -9139,14 +9231,14 @@
         <v>31</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>181</v>
@@ -9175,14 +9267,14 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y124" s="8">
         <v>0</v>
       </c>
       <c r="Z124" s="9"/>
       <c r="AA124" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB124" s="12"/>
       <c r="AC124" s="5"/>
@@ -9199,14 +9291,14 @@
         <v>31</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>181</v>
@@ -9235,14 +9327,14 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y125" s="8">
         <v>0</v>
       </c>
       <c r="Z125" s="9"/>
       <c r="AA125" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB125" s="12"/>
       <c r="AC125" s="5"/>
@@ -9259,14 +9351,14 @@
         <v>31</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>181</v>
@@ -9295,17 +9387,17 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y126" s="8">
         <v>0</v>
       </c>
       <c r="Z126" s="9"/>
       <c r="AA126" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AB126" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AC126" s="5"/>
       <c r="AD126" s="5"/>
@@ -9321,14 +9413,14 @@
         <v>31</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>181</v>
@@ -9357,14 +9449,14 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y127" s="8">
         <v>0</v>
       </c>
       <c r="Z127" s="9"/>
       <c r="AA127" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB127" s="12"/>
       <c r="AC127" s="5"/>
@@ -9381,14 +9473,14 @@
         <v>31</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>181</v>
@@ -9417,14 +9509,14 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y128" s="8">
         <v>0</v>
       </c>
       <c r="Z128" s="9"/>
       <c r="AA128" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB128" s="12"/>
       <c r="AC128" s="5"/>
@@ -9441,14 +9533,14 @@
         <v>31</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>181</v>
@@ -9477,14 +9569,14 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y129" s="8">
         <v>0</v>
       </c>
       <c r="Z129" s="9"/>
       <c r="AA129" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB129" s="12"/>
       <c r="AC129" s="5"/>
@@ -9501,14 +9593,14 @@
         <v>31</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>181</v>
@@ -9537,17 +9629,17 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y130" s="8">
         <v>0</v>
       </c>
       <c r="Z130" s="9"/>
       <c r="AA130" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AB130" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AC130" s="5"/>
       <c r="AD130" s="5"/>
@@ -9563,14 +9655,14 @@
         <v>31</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>181</v>
@@ -9599,14 +9691,14 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y131" s="8">
         <v>0</v>
       </c>
       <c r="Z131" s="9"/>
       <c r="AA131" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB131" s="12"/>
       <c r="AC131" s="5"/>
@@ -9623,14 +9715,14 @@
         <v>31</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>188</v>
@@ -9659,14 +9751,14 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y132" s="8">
         <v>0</v>
       </c>
       <c r="Z132" s="9"/>
       <c r="AA132" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB132" s="12"/>
       <c r="AC132" s="5"/>
@@ -9683,14 +9775,14 @@
         <v>31</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>188</v>
@@ -9719,14 +9811,14 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y133" s="8">
         <v>0</v>
       </c>
       <c r="Z133" s="9"/>
       <c r="AA133" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB133" s="12"/>
       <c r="AC133" s="5"/>
@@ -9743,14 +9835,14 @@
         <v>31</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>188</v>
@@ -9779,14 +9871,14 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y134" s="8">
         <v>0</v>
       </c>
       <c r="Z134" s="9"/>
       <c r="AA134" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB134" s="12"/>
       <c r="AC134" s="5"/>
@@ -9803,14 +9895,14 @@
         <v>31</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>188</v>
@@ -9839,17 +9931,17 @@
       <c r="V135" s="6"/>
       <c r="W135" s="6"/>
       <c r="X135" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y135" s="8">
         <v>0</v>
       </c>
       <c r="Z135" s="9"/>
       <c r="AA135" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AB135" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AC135" s="6"/>
       <c r="AD135" s="6"/>
@@ -9865,14 +9957,14 @@
         <v>31</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>195</v>
@@ -9901,14 +9993,14 @@
       <c r="V136" s="6"/>
       <c r="W136" s="6"/>
       <c r="X136" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y136" s="8">
         <v>0</v>
       </c>
       <c r="Z136" s="9"/>
       <c r="AA136" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB136" s="12"/>
       <c r="AC136" s="6"/>
@@ -9925,14 +10017,14 @@
         <v>31</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>195</v>
@@ -9961,14 +10053,14 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y137" s="8">
         <v>0</v>
       </c>
       <c r="Z137" s="9"/>
       <c r="AA137" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB137" s="12"/>
       <c r="AC137" s="5"/>
@@ -9985,14 +10077,14 @@
         <v>31</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>195</v>
@@ -10021,14 +10113,14 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y138" s="8">
         <v>0</v>
       </c>
       <c r="Z138" s="9"/>
       <c r="AA138" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB138" s="12"/>
       <c r="AC138" s="5"/>
@@ -10045,14 +10137,14 @@
         <v>31</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>195</v>
@@ -10081,17 +10173,17 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y139" s="8">
         <v>0</v>
       </c>
       <c r="Z139" s="9"/>
       <c r="AA139" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AB139" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AC139" s="5"/>
       <c r="AD139" s="5"/>
@@ -10107,14 +10199,14 @@
         <v>31</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>195</v>
@@ -10143,14 +10235,14 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y140" s="8">
         <v>0</v>
       </c>
       <c r="Z140" s="9"/>
       <c r="AA140" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB140" s="12"/>
       <c r="AC140" s="5"/>
@@ -10167,14 +10259,14 @@
         <v>31</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
@@ -10199,14 +10291,14 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y141" s="8">
         <v>0</v>
       </c>
       <c r="Z141" s="9"/>
       <c r="AA141" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB141" s="12"/>
       <c r="AC141" s="5"/>
@@ -10223,14 +10315,14 @@
         <v>31</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
@@ -10255,14 +10347,14 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y142" s="8">
         <v>0</v>
       </c>
       <c r="Z142" s="9"/>
       <c r="AA142" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB142" s="12"/>
       <c r="AC142" s="5"/>
@@ -10279,14 +10371,14 @@
         <v>31</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -10311,14 +10403,14 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
       <c r="X143" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y143" s="8">
         <v>0</v>
       </c>
       <c r="Z143" s="9"/>
       <c r="AA143" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB143" s="12"/>
       <c r="AC143" s="5"/>
@@ -10335,14 +10427,14 @@
         <v>31</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -10367,14 +10459,14 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y144" s="8">
         <v>0</v>
       </c>
       <c r="Z144" s="9"/>
       <c r="AA144" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB144" s="12"/>
       <c r="AC144" s="5"/>
@@ -10391,14 +10483,14 @@
         <v>31</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
@@ -10423,14 +10515,14 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
       <c r="X145" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y145" s="8">
         <v>0</v>
       </c>
       <c r="Z145" s="9"/>
       <c r="AA145" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB145" s="12"/>
       <c r="AC145" s="5"/>
@@ -10447,14 +10539,14 @@
         <v>31</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -10479,14 +10571,14 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
       <c r="X146" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y146" s="8">
         <v>0</v>
       </c>
       <c r="Z146" s="9"/>
       <c r="AA146" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB146" s="12"/>
       <c r="AC146" s="5"/>
@@ -10503,14 +10595,14 @@
         <v>31</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
@@ -10535,14 +10627,14 @@
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
       <c r="X147" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y147" s="8">
         <v>0</v>
       </c>
       <c r="Z147" s="9"/>
       <c r="AA147" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB147" s="12"/>
       <c r="AC147" s="5"/>
@@ -10559,14 +10651,14 @@
         <v>31</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -10591,14 +10683,14 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
       <c r="X148" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y148" s="8">
         <v>0</v>
       </c>
       <c r="Z148" s="9"/>
       <c r="AA148" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB148" s="12"/>
       <c r="AC148" s="5"/>
@@ -10615,14 +10707,14 @@
         <v>31</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -10647,17 +10739,17 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
       <c r="X149" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y149" s="8">
         <v>0</v>
       </c>
       <c r="Z149" s="9"/>
       <c r="AA149" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AB149" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AC149" s="5"/>
       <c r="AD149" s="5"/>
@@ -10673,14 +10765,14 @@
         <v>31</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -10705,17 +10797,17 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
       <c r="X150" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y150" s="8">
         <v>0</v>
       </c>
       <c r="Z150" s="9"/>
       <c r="AA150" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AB150" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AC150" s="5"/>
       <c r="AD150" s="5"/>
@@ -10731,14 +10823,14 @@
         <v>31</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
@@ -10763,17 +10855,17 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
       <c r="X151" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y151" s="8">
         <v>0</v>
       </c>
       <c r="Z151" s="9"/>
       <c r="AA151" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AB151" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AC151" s="5"/>
       <c r="AD151" s="5"/>
@@ -10789,14 +10881,14 @@
         <v>31</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
@@ -10821,17 +10913,17 @@
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
       <c r="X152" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y152" s="8">
         <v>0</v>
       </c>
       <c r="Z152" s="9"/>
       <c r="AA152" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AB152" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AC152" s="5"/>
       <c r="AD152" s="5"/>
@@ -10847,14 +10939,14 @@
         <v>31</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -10879,14 +10971,14 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
       <c r="X153" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y153" s="8">
         <v>0</v>
       </c>
       <c r="Z153" s="9"/>
       <c r="AA153" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
@@ -10903,13 +10995,15 @@
         <v>31</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E154" s="4"/>
+        <v>321</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>322</v>
+      </c>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
@@ -10940,7 +11034,7 @@
       </c>
       <c r="Z154" s="9"/>
       <c r="AA154" s="10" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
@@ -10957,13 +11051,15 @@
         <v>31</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E155" s="4"/>
+        <v>321</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>325</v>
+      </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -10994,7 +11090,7 @@
       </c>
       <c r="Z155" s="9"/>
       <c r="AA155" s="10" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
@@ -11011,13 +11107,15 @@
         <v>31</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E156" s="4"/>
+        <v>321</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>327</v>
+      </c>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -11048,7 +11146,7 @@
       </c>
       <c r="Z156" s="9"/>
       <c r="AA156" s="10" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
@@ -11065,13 +11163,15 @@
         <v>31</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E157" s="4"/>
+        <v>321</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>329</v>
+      </c>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
@@ -11102,7 +11202,7 @@
       </c>
       <c r="Z157" s="9"/>
       <c r="AA157" s="10" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
@@ -11116,16 +11216,18 @@
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E158" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>333</v>
+      </c>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
@@ -11152,7 +11254,7 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
       <c r="AA158" s="10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
@@ -11166,16 +11268,18 @@
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E159" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>336</v>
+      </c>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
@@ -11202,7 +11306,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
       <c r="AA159" s="10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
@@ -11216,16 +11320,18 @@
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E160" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>338</v>
+      </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -11252,7 +11358,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
       <c r="AA160" s="10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
@@ -11266,16 +11372,18 @@
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E161" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>340</v>
+      </c>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
@@ -11302,7 +11410,7 @@
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
       <c r="AA161" s="10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AB161" s="5"/>
       <c r="AC161" s="5"/>
@@ -11316,16 +11424,18 @@
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E162" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>342</v>
+      </c>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
@@ -11352,7 +11462,7 @@
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
       <c r="AA162" s="10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AB162" s="5"/>
       <c r="AC162" s="5"/>
@@ -11366,16 +11476,18 @@
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E163" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>344</v>
+      </c>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
@@ -11402,7 +11514,7 @@
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
       <c r="AA163" s="10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AB163" s="5"/>
       <c r="AC163" s="5"/>
@@ -11416,16 +11528,18 @@
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E164" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>346</v>
+      </c>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
@@ -11452,7 +11566,7 @@
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
       <c r="AA164" s="10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AB164" s="5"/>
       <c r="AC164" s="5"/>
@@ -11466,16 +11580,18 @@
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E165" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>348</v>
+      </c>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
@@ -11502,7 +11618,7 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
       <c r="AA165" s="10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AB165" s="5"/>
       <c r="AC165" s="5"/>
@@ -11516,16 +11632,18 @@
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E166" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>350</v>
+      </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
@@ -11552,7 +11670,7 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
       <c r="AA166" s="10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AB166" s="5"/>
       <c r="AC166" s="5"/>
@@ -11566,16 +11684,18 @@
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E167" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>352</v>
+      </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -11602,7 +11722,7 @@
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
       <c r="AA167" s="10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AB167" s="5"/>
       <c r="AC167" s="5"/>
@@ -11616,14 +11736,14 @@
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="11" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -11652,7 +11772,7 @@
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
       <c r="AA168" s="5" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
@@ -11784,18 +11904,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>167</v>
@@ -11859,7 +11979,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
+++ b/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37FEA13-ACEF-4620-8982-37AA1F1FC96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6D3D48-3708-4843-873F-ED30AAE42F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="4515" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="3180" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH58_赤山町駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="357">
   <si>
     <t>Type</t>
   </si>
@@ -1204,6 +1204,9 @@
   </si>
   <si>
     <t>NA2T</t>
+  </si>
+  <si>
+    <t>TH58_1F</t>
   </si>
   <si>
     <t>NA2T_2</t>
@@ -7583,7 +7586,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>164</v>
@@ -7629,7 +7632,7 @@
         <v>31</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="13" t="s">
@@ -7643,7 +7646,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>164</v>
@@ -7689,7 +7692,7 @@
         <v>31</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="13" t="s">
@@ -7703,10 +7706,10 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L98" s="7">
         <v>274</v>
@@ -7732,10 +7735,10 @@
       </c>
       <c r="Z98" s="9"/>
       <c r="AA98" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB98" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
@@ -7751,7 +7754,7 @@
         <v>31</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="13" t="s">
@@ -7765,10 +7768,10 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L99" s="7">
         <v>274</v>
@@ -7794,10 +7797,10 @@
       </c>
       <c r="Z99" s="9"/>
       <c r="AA99" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AB99" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
@@ -7813,7 +7816,7 @@
         <v>31</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="13" t="s">
@@ -7827,7 +7830,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="K100" s="7" t="s">
         <v>167</v>
@@ -7856,10 +7859,10 @@
       </c>
       <c r="Z100" s="9"/>
       <c r="AA100" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AB100" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
@@ -7875,7 +7878,7 @@
         <v>31</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="13" t="s">
@@ -7889,7 +7892,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>167</v>
@@ -7918,10 +7921,10 @@
       </c>
       <c r="Z101" s="9"/>
       <c r="AA101" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB101" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
@@ -7937,14 +7940,14 @@
         <v>31</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -7993,14 +7996,14 @@
         <v>31</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -8049,14 +8052,14 @@
         <v>31</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>163</v>
@@ -8109,14 +8112,14 @@
         <v>31</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>163</v>
@@ -8169,14 +8172,14 @@
         <v>31</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>163</v>
@@ -8229,14 +8232,14 @@
         <v>31</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>163</v>
@@ -8272,10 +8275,10 @@
       </c>
       <c r="Z107" s="9"/>
       <c r="AA107" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB107" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
@@ -8291,14 +8294,14 @@
         <v>31</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>163</v>
@@ -8351,14 +8354,14 @@
         <v>31</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>174</v>
@@ -8411,14 +8414,14 @@
         <v>31</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>174</v>
@@ -8471,14 +8474,14 @@
         <v>31</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>174</v>
@@ -8531,14 +8534,14 @@
         <v>31</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>174</v>
@@ -8591,14 +8594,14 @@
         <v>31</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>174</v>
@@ -8634,10 +8637,10 @@
       </c>
       <c r="Z113" s="9"/>
       <c r="AA113" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AB113" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
@@ -8653,14 +8656,14 @@
         <v>31</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>174</v>
@@ -8713,14 +8716,14 @@
         <v>31</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>174</v>
@@ -8756,10 +8759,10 @@
       </c>
       <c r="Z115" s="9"/>
       <c r="AA115" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AB115" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
@@ -8775,14 +8778,14 @@
         <v>31</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>174</v>
@@ -8835,14 +8838,14 @@
         <v>31</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -8891,14 +8894,14 @@
         <v>31</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -8947,14 +8950,14 @@
         <v>31</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -9003,14 +9006,14 @@
         <v>31</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -9059,14 +9062,14 @@
         <v>31</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -9115,14 +9118,14 @@
         <v>31</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -9171,14 +9174,14 @@
         <v>31</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>181</v>
@@ -9231,14 +9234,14 @@
         <v>31</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>181</v>
@@ -9291,14 +9294,14 @@
         <v>31</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>181</v>
@@ -9351,14 +9354,14 @@
         <v>31</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>181</v>
@@ -9394,10 +9397,10 @@
       </c>
       <c r="Z126" s="9"/>
       <c r="AA126" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AB126" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AC126" s="5"/>
       <c r="AD126" s="5"/>
@@ -9413,14 +9416,14 @@
         <v>31</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>181</v>
@@ -9473,14 +9476,14 @@
         <v>31</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>181</v>
@@ -9533,14 +9536,14 @@
         <v>31</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>181</v>
@@ -9593,14 +9596,14 @@
         <v>31</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>181</v>
@@ -9636,10 +9639,10 @@
       </c>
       <c r="Z130" s="9"/>
       <c r="AA130" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AB130" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AC130" s="5"/>
       <c r="AD130" s="5"/>
@@ -9655,14 +9658,14 @@
         <v>31</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>181</v>
@@ -9715,14 +9718,14 @@
         <v>31</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>188</v>
@@ -9775,14 +9778,14 @@
         <v>31</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>188</v>
@@ -9835,14 +9838,14 @@
         <v>31</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>188</v>
@@ -9895,14 +9898,14 @@
         <v>31</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>188</v>
@@ -9938,10 +9941,10 @@
       </c>
       <c r="Z135" s="9"/>
       <c r="AA135" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB135" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AC135" s="6"/>
       <c r="AD135" s="6"/>
@@ -9957,14 +9960,14 @@
         <v>31</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>195</v>
@@ -10017,14 +10020,14 @@
         <v>31</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>195</v>
@@ -10077,14 +10080,14 @@
         <v>31</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>195</v>
@@ -10137,14 +10140,14 @@
         <v>31</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>195</v>
@@ -10180,10 +10183,10 @@
       </c>
       <c r="Z139" s="9"/>
       <c r="AA139" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB139" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AC139" s="5"/>
       <c r="AD139" s="5"/>
@@ -10199,14 +10202,14 @@
         <v>31</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>195</v>
@@ -10259,14 +10262,14 @@
         <v>31</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
@@ -10315,14 +10318,14 @@
         <v>31</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
@@ -10371,14 +10374,14 @@
         <v>31</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -10427,14 +10430,14 @@
         <v>31</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -10483,14 +10486,14 @@
         <v>31</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
@@ -10539,14 +10542,14 @@
         <v>31</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -10595,14 +10598,14 @@
         <v>31</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="13" t="s">
         <v>240</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
@@ -10651,14 +10654,14 @@
         <v>31</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="13" t="s">
         <v>240</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -10707,14 +10710,14 @@
         <v>31</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="13" t="s">
         <v>240</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -10746,10 +10749,10 @@
       </c>
       <c r="Z149" s="9"/>
       <c r="AA149" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB149" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AC149" s="5"/>
       <c r="AD149" s="5"/>
@@ -10765,14 +10768,14 @@
         <v>31</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="13" t="s">
         <v>240</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -10804,10 +10807,10 @@
       </c>
       <c r="Z150" s="9"/>
       <c r="AA150" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AB150" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AC150" s="5"/>
       <c r="AD150" s="5"/>
@@ -10823,14 +10826,14 @@
         <v>31</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="13" t="s">
         <v>240</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
@@ -10862,10 +10865,10 @@
       </c>
       <c r="Z151" s="9"/>
       <c r="AA151" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AB151" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AC151" s="5"/>
       <c r="AD151" s="5"/>
@@ -10881,14 +10884,14 @@
         <v>31</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="13" t="s">
         <v>240</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
@@ -10920,10 +10923,10 @@
       </c>
       <c r="Z152" s="9"/>
       <c r="AA152" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB152" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AC152" s="5"/>
       <c r="AD152" s="5"/>
@@ -10939,14 +10942,14 @@
         <v>31</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -10995,14 +10998,14 @@
         <v>31</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
@@ -11034,7 +11037,7 @@
       </c>
       <c r="Z154" s="9"/>
       <c r="AA154" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
@@ -11051,14 +11054,14 @@
         <v>31</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
@@ -11090,7 +11093,7 @@
       </c>
       <c r="Z155" s="9"/>
       <c r="AA155" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
@@ -11107,14 +11110,14 @@
         <v>31</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
@@ -11146,7 +11149,7 @@
       </c>
       <c r="Z156" s="9"/>
       <c r="AA156" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
@@ -11163,14 +11166,14 @@
         <v>31</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -11202,7 +11205,7 @@
       </c>
       <c r="Z157" s="9"/>
       <c r="AA157" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
@@ -11216,17 +11219,17 @@
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -11254,7 +11257,7 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
       <c r="AA158" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
@@ -11268,17 +11271,17 @@
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
@@ -11306,7 +11309,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
       <c r="AA159" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
@@ -11320,17 +11323,17 @@
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
@@ -11358,7 +11361,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
       <c r="AA160" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
@@ -11372,17 +11375,17 @@
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
@@ -11410,7 +11413,7 @@
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
       <c r="AA161" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB161" s="5"/>
       <c r="AC161" s="5"/>
@@ -11424,17 +11427,17 @@
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
@@ -11462,7 +11465,7 @@
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
       <c r="AA162" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB162" s="5"/>
       <c r="AC162" s="5"/>
@@ -11476,17 +11479,17 @@
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
@@ -11514,7 +11517,7 @@
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
       <c r="AA163" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB163" s="5"/>
       <c r="AC163" s="5"/>
@@ -11528,17 +11531,17 @@
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
@@ -11566,7 +11569,7 @@
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
       <c r="AA164" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB164" s="5"/>
       <c r="AC164" s="5"/>
@@ -11580,17 +11583,17 @@
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
@@ -11618,7 +11621,7 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
       <c r="AA165" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB165" s="5"/>
       <c r="AC165" s="5"/>
@@ -11632,17 +11635,17 @@
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
@@ -11670,7 +11673,7 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
       <c r="AA166" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB166" s="5"/>
       <c r="AC166" s="5"/>
@@ -11684,17 +11687,17 @@
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
@@ -11722,7 +11725,7 @@
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
       <c r="AA167" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB167" s="5"/>
       <c r="AC167" s="5"/>
@@ -11736,14 +11739,14 @@
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -11772,7 +11775,7 @@
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
       <c r="AA168" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
@@ -11904,18 +11907,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>167</v>
@@ -11979,7 +11982,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
+++ b/exe/TSV/Excel/TH58_Akayamacho_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6D3D48-3708-4843-873F-ED30AAE42F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77049BD1-C36C-4AB3-87F6-87018DD230B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="3180" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6495" yWindow="4395" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH58_赤山町駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="359">
   <si>
     <t>Type</t>
   </si>
@@ -1443,16 +1443,22 @@
     <t>AS2T</t>
   </si>
   <si>
+    <t>転てつ不良_R</t>
+  </si>
+  <si>
+    <t>状態表示灯</t>
+  </si>
+  <si>
+    <t>TH58_W-FAILURE</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/R.png</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
-    <t>状態表示灯</t>
-  </si>
-  <si>
     <t>TH58_PWR-FAILURE</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/R.png</t>
   </si>
   <si>
     <t>CTC故障_R</t>
@@ -1886,7 +1892,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ170"/>
+  <dimension ref="A1:AJ171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -11014,7 +11020,7 @@
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
       <c r="L154" s="7">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M154" s="7">
         <v>45</v>
@@ -11070,7 +11076,7 @@
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
       <c r="L155" s="7">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M155" s="7">
         <v>45</v>
@@ -11126,10 +11132,10 @@
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
       <c r="L156" s="7">
-        <v>936</v>
+        <v>278</v>
       </c>
       <c r="M156" s="7">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
@@ -11182,7 +11188,7 @@
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
       <c r="L157" s="7">
-        <v>974</v>
+        <v>936</v>
       </c>
       <c r="M157" s="7">
         <v>567</v>
@@ -11219,17 +11225,17 @@
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="C158" s="4"/>
+      <c r="D158" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E158" s="14" t="s">
         <v>332</v>
-      </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E158" s="15" t="s">
-        <v>334</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -11238,10 +11244,10 @@
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
       <c r="L158" s="7">
-        <v>63</v>
+        <v>974</v>
       </c>
       <c r="M158" s="7">
-        <v>188</v>
+        <v>567</v>
       </c>
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
@@ -11252,12 +11258,16 @@
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
-      <c r="W158" s="7"/>
-      <c r="X158" s="4"/>
-      <c r="Y158" s="4"/>
-      <c r="Z158" s="4"/>
+      <c r="W158" s="4"/>
+      <c r="X158" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y158" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z158" s="9"/>
       <c r="AA158" s="10" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
@@ -11271,17 +11281,17 @@
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E159" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
@@ -11290,7 +11300,7 @@
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
       <c r="L159" s="7">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="M159" s="7">
         <v>188</v>
@@ -11309,7 +11319,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
       <c r="AA159" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
@@ -11323,14 +11333,14 @@
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>338</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E160" s="14" t="s">
         <v>339</v>
@@ -11342,7 +11352,7 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
       <c r="L160" s="7">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="M160" s="7">
         <v>188</v>
@@ -11361,7 +11371,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
       <c r="AA160" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
@@ -11375,14 +11385,14 @@
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>340</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E161" s="14" t="s">
         <v>341</v>
@@ -11394,10 +11404,10 @@
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7">
-        <v>789</v>
+        <v>363</v>
       </c>
       <c r="M161" s="7">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
@@ -11413,7 +11423,7 @@
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
       <c r="AA161" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AB161" s="5"/>
       <c r="AC161" s="5"/>
@@ -11427,14 +11437,14 @@
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>342</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>343</v>
@@ -11446,10 +11456,10 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
       <c r="L162" s="7">
-        <v>847</v>
+        <v>789</v>
       </c>
       <c r="M162" s="7">
-        <v>335</v>
+        <v>255</v>
       </c>
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
@@ -11465,7 +11475,7 @@
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
       <c r="AA162" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AB162" s="5"/>
       <c r="AC162" s="5"/>
@@ -11479,14 +11489,14 @@
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>344</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E163" s="14" t="s">
         <v>345</v>
@@ -11498,10 +11508,10 @@
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
       <c r="L163" s="7">
-        <v>905</v>
+        <v>847</v>
       </c>
       <c r="M163" s="7">
-        <v>415</v>
+        <v>335</v>
       </c>
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
@@ -11517,7 +11527,7 @@
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
       <c r="AA163" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AB163" s="5"/>
       <c r="AC163" s="5"/>
@@ -11531,14 +11541,14 @@
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>346</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E164" s="14" t="s">
         <v>347</v>
@@ -11550,10 +11560,10 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
       <c r="L164" s="7">
-        <v>1396</v>
+        <v>905</v>
       </c>
       <c r="M164" s="7">
-        <v>195</v>
+        <v>415</v>
       </c>
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
@@ -11569,7 +11579,7 @@
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
       <c r="AA164" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AB164" s="5"/>
       <c r="AC164" s="5"/>
@@ -11583,14 +11593,14 @@
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>348</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E165" s="14" t="s">
         <v>349</v>
@@ -11605,7 +11615,7 @@
         <v>1396</v>
       </c>
       <c r="M165" s="7">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>
@@ -11621,7 +11631,7 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
       <c r="AA165" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AB165" s="5"/>
       <c r="AC165" s="5"/>
@@ -11635,14 +11645,14 @@
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>350</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E166" s="14" t="s">
         <v>351</v>
@@ -11654,10 +11664,10 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7">
-        <v>1425</v>
+        <v>1396</v>
       </c>
       <c r="M166" s="7">
-        <v>422</v>
+        <v>255</v>
       </c>
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
@@ -11673,7 +11683,7 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
       <c r="AA166" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AB166" s="5"/>
       <c r="AC166" s="5"/>
@@ -11687,14 +11697,14 @@
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>352</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E167" s="14" t="s">
         <v>353</v>
@@ -11706,7 +11716,7 @@
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
       <c r="L167" s="7">
-        <v>1575</v>
+        <v>1425</v>
       </c>
       <c r="M167" s="7">
         <v>422</v>
@@ -11725,7 +11735,7 @@
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
       <c r="AA167" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AB167" s="5"/>
       <c r="AC167" s="5"/>
@@ -11739,26 +11749,28 @@
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B168" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>354</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E168" s="4"/>
+        <v>335</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>355</v>
+      </c>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4">
-        <v>1725</v>
-      </c>
-      <c r="M168" s="4">
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7">
+        <v>1575</v>
+      </c>
+      <c r="M168" s="7">
         <v>422</v>
       </c>
       <c r="N168" s="4"/>
@@ -11770,12 +11782,12 @@
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
-      <c r="W168" s="4"/>
+      <c r="W168" s="7"/>
       <c r="X168" s="4"/>
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
-      <c r="AA168" s="5" t="s">
-        <v>335</v>
+      <c r="AA168" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
@@ -11788,10 +11800,16 @@
       <c r="AJ168" s="5"/>
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
+      <c r="A169" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>356</v>
+      </c>
       <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
+      <c r="D169" s="11" t="s">
+        <v>335</v>
+      </c>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
@@ -11799,8 +11817,12 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
+      <c r="L169" s="4">
+        <v>1725</v>
+      </c>
+      <c r="M169" s="4">
+        <v>422</v>
+      </c>
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
@@ -11814,7 +11836,9 @@
       <c r="X169" s="4"/>
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
-      <c r="AA169" s="5"/>
+      <c r="AA169" s="5" t="s">
+        <v>337</v>
+      </c>
       <c r="AB169" s="5"/>
       <c r="AC169" s="5"/>
       <c r="AD169" s="5"/>
@@ -11863,6 +11887,44 @@
       <c r="AI170" s="5"/>
       <c r="AJ170" s="5"/>
     </row>
+    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="4"/>
+      <c r="Y171" s="4"/>
+      <c r="Z171" s="4"/>
+      <c r="AA171" s="5"/>
+      <c r="AB171" s="5"/>
+      <c r="AC171" s="5"/>
+      <c r="AD171" s="5"/>
+      <c r="AE171" s="5"/>
+      <c r="AF171" s="5"/>
+      <c r="AG171" s="5"/>
+      <c r="AH171" s="5"/>
+      <c r="AI171" s="5"/>
+      <c r="AJ171" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11874,19 +11936,19 @@
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G170 I2:I170</xm:sqref>
+          <xm:sqref>G2:G171 I2:I171</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K170</xm:sqref>
+          <xm:sqref>K2:K171</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A170</xm:sqref>
+          <xm:sqref>A2:A171</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11907,7 +11969,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>164</v>
@@ -11918,7 +11980,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>167</v>
@@ -11982,7 +12044,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
